--- a/file_checks/dataset_correct_genes_wrong_pheno.xlsx
+++ b/file_checks/dataset_correct_genes_wrong_pheno.xlsx
@@ -563,7 +563,7 @@
     <t xml:space="preserve">RR_rorS_risk_high</t>
   </si>
   <si>
-    <t xml:space="preserve">XX_Endo</t>
+    <t xml:space="preserve">RR_Endo</t>
   </si>
 </sst>
 </file>
@@ -1451,517 +1451,517 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.25717443635968</v>
+        <v>2.0269679049625</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.917306735813147</v>
+        <v>-1.12287659993845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191056510121822</v>
+        <v>-0.739477776478781</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.616450430953472</v>
+        <v>1.2922857770498</v>
       </c>
       <c r="E2" t="n">
-        <v>0.100393715439111</v>
+        <v>0.944876555993894</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.77207587967811</v>
+        <v>0.297712757451894</v>
       </c>
       <c r="G2" t="n">
-        <v>0.133212592340433</v>
+        <v>1.22748528628905</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0574922761048644</v>
+        <v>-1.03486494313937</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.47559975437424</v>
+        <v>0.0229076921290398</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.134802712832012</v>
+        <v>-0.179627150335915</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.673459848752171</v>
+        <v>-0.393565371764293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.389749679736775</v>
+        <v>0.0357714205961306</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.825828802593681</v>
+        <v>-1.33754394729972</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.42015479127282</v>
+        <v>-0.417913310684316</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0812021667084154</v>
+        <v>1.49640295137777</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.68608398206904</v>
+        <v>-0.304576105370714</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.8214723973272</v>
+        <v>1.84225390742666</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.06360417693803</v>
+        <v>-1.0074074741395</v>
       </c>
       <c r="S2" t="n">
-        <v>0.14161811382475</v>
+        <v>0.382786852781891</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.290267932590177</v>
+        <v>1.11744761967299</v>
       </c>
       <c r="U2" t="n">
-        <v>0.349904581920048</v>
+        <v>-1.11053959776891</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22961093170126</v>
+        <v>-0.635481100364664</v>
       </c>
       <c r="W2" t="n">
-        <v>0.675930488737195</v>
+        <v>0.499070314487142</v>
       </c>
       <c r="X2" t="n">
-        <v>0.967504805786541</v>
+        <v>-0.634903967263544</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.293218611499048</v>
+        <v>1.76532042390504</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.17717921459782</v>
+        <v>-1.5122725842947</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.181855160563131</v>
+        <v>0.975440184212009</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.065425990794</v>
+        <v>0.467308448618219</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0104461150067903</v>
+        <v>1.12709677849874</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.27234492468612</v>
+        <v>-0.091008114111091</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0704685539171475</v>
+        <v>-0.3212429900458</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0697752047129883</v>
+        <v>0.0628667827888129</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.778960527518005</v>
+        <v>-1.25639785848575</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.05815485468685</v>
+        <v>0.237471751311166</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0887731235139254</v>
+        <v>1.32481073252402</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.188342746314362</v>
+        <v>-0.971337305201372</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.66372259202366</v>
+        <v>-0.348068439373237</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.2903447367597</v>
+        <v>-0.3568100323563</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.12957833966912</v>
+        <v>-0.0940270467604912</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.71680440283173</v>
+        <v>0.550545973089904</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.05642937850982</v>
+        <v>0.982202556472666</v>
       </c>
       <c r="AP2" t="n">
-        <v>-2.31991113915146</v>
+        <v>-0.455865942336876</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.11790343255889</v>
+        <v>0.643511205170052</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.899438298414263</v>
+        <v>-1.15586212341616</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.16142079348188</v>
+        <v>-0.590047627420514</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.737648340092179</v>
+        <v>-0.826050883323618</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.296938750467949</v>
+        <v>-0.802164123967081</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.499376650422826</v>
+        <v>0.249252341677495</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.379420324867694</v>
+        <v>0.172231949063691</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.599365613411996</v>
+        <v>-1.80422074260589</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.152782566849891</v>
+        <v>-0.0611801836319229</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1.13254286877066</v>
+        <v>1.34952904763046</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.35671070586496</v>
+        <v>-0.652109707886303</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.65530190893668</v>
+        <v>0.587420211893239</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.105438389785172</v>
+        <v>0.2955528126761</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.29098832472069</v>
+        <v>0.622727696202046</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.893594253486044</v>
+        <v>-0.383499026544332</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.771180088640709</v>
+        <v>0.396204930572432</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.640190219542038</v>
+        <v>-1.70361354389665</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.0225649530250701</v>
+        <v>-1.8121375523301</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.678559452926046</v>
+        <v>-0.845609125120262</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.584357083649753</v>
+        <v>-1.06892218397161</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.61986813656919</v>
+        <v>-0.247283544386309</v>
       </c>
       <c r="BL2" t="n">
-        <v>-2.94943398508789</v>
+        <v>1.66540587541597</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.981292114168451</v>
+        <v>0.210634486816377</v>
       </c>
       <c r="BN2" t="n">
-        <v>-1.49478397359285</v>
+        <v>0.69347590188504</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.12795918946388</v>
+        <v>-1.04631655258391</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.52559387583062</v>
+        <v>0.0822051898094792</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.338502394087875</v>
+        <v>-0.480966205569093</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0568177086821161</v>
+        <v>0.602264308776435</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.806069474212267</v>
+        <v>0.802278884948816</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.495109613686637</v>
+        <v>0.202524169795104</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.780678567931509</v>
+        <v>-0.0864149840601712</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.669443003738161</v>
+        <v>0.074792656162798</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.52649243732677</v>
+        <v>-0.166918007205342</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.754020321999578</v>
+        <v>0.682211403435999</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.534803933817695</v>
+        <v>-0.264291762544682</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.05953405122978</v>
+        <v>2.08899517659254</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0109316751169556</v>
+        <v>0.387963692443172</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.61335020590461</v>
+        <v>-0.714005996910177</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.436630501672141</v>
+        <v>-0.472277658551275</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.765024455236844</v>
+        <v>1.82422196754923</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.721573707442562</v>
+        <v>0.108249516310442</v>
       </c>
       <c r="CF2" t="n">
-        <v>-1.10521249839679</v>
+        <v>0.702414408638762</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.428734198888863</v>
+        <v>0.0705496736365738</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.585061069206311</v>
+        <v>-1.5188945732312</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.99642050564146</v>
+        <v>-0.074103404077418</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.14646673973998</v>
+        <v>-1.55225865823618</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.27891199747677</v>
+        <v>-1.43866521168</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.56403462744436</v>
+        <v>-1.25781667940137</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.661557154222482</v>
+        <v>0.486650306158029</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.13667917674153</v>
+        <v>-1.66339364934596</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.0187917304585546</v>
+        <v>0.63829166717015</v>
       </c>
       <c r="CP2" t="n">
-        <v>2.48213484986494</v>
+        <v>-0.828139073766474</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.549110107835552</v>
+        <v>-0.89054517682889</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.229684524950742</v>
+        <v>-2.65089076747987</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.138876613833823</v>
+        <v>-0.0820704250553026</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.344174901095963</v>
+        <v>-0.052381623062349</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0951663039765532</v>
+        <v>1.99094514980026</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.799511454700424</v>
+        <v>0.0736377959493319</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.388385066431901</v>
+        <v>-2.14808312839481</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0847696156841371</v>
+        <v>0.133117640410736</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.462189648660126</v>
+        <v>1.91258913147716</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-2.09342468693931</v>
+        <v>0.253668824383896</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.43356340778476</v>
+        <v>0.172054309769002</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.24179591822732</v>
+        <v>-0.675576578212713</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.331639785767746</v>
+        <v>0.549146178446209</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.933574902749577</v>
+        <v>-0.520546136521371</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.250256534117457</v>
+        <v>0.154852569210154</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.384573812220643</v>
+        <v>-0.0952000311466261</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.587524201181707</v>
+        <v>0.809755423574754</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.352425671442017</v>
+        <v>0.278955735664631</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.389120878908396</v>
+        <v>0.118019809007022</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.17083649715367</v>
+        <v>-0.595548023654712</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.89412326832989</v>
+        <v>-0.441820591932957</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.04466278670076</v>
+        <v>-0.172590347701716</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.93380844761501</v>
+        <v>0.00780303371863125</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.135101623557925</v>
+        <v>0.0227869264148322</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.344370279258834</v>
+        <v>-0.27391575507053</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.148444981994202</v>
+        <v>-1.15733740836321</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.313426742919652</v>
+        <v>1.42909630694124</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.170607629375476</v>
+        <v>-0.839256665659262</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0091515272722409</v>
+        <v>-0.359074315011797</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.26970077068861</v>
+        <v>0.451358397860466</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.99115902381711</v>
+        <v>0.926809524042695</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.0211771512357273</v>
+        <v>-1.36499364926538</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.239939985325546</v>
+        <v>1.20203538571472</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.69277576977861</v>
+        <v>-0.959583678378869</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.04886645922101</v>
+        <v>-1.37582481099069</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.214988478606458</v>
+        <v>0.0260496736498614</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.554630847870368</v>
+        <v>-0.408883575874093</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.429063987798024</v>
+        <v>0.143906062439644</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.40712846230289</v>
+        <v>0.963674251365672</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.283449569288646</v>
+        <v>-0.42814912174436</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.940127458634269</v>
+        <v>-0.956875914089273</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.361539933362843</v>
+        <v>-1.14849061790826</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.255200999178006</v>
+        <v>0.911908108783435</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.44692191492116</v>
+        <v>-0.514308553975004</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.0714204959618267</v>
+        <v>-0.936188755880039</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.931121646185129</v>
+        <v>-0.462760033287281</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.345973929956315</v>
+        <v>0.740682273830748</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.409002836513697</v>
+        <v>-1.46484924695602</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.45820125851105</v>
+        <v>-1.37334022702628</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.575829314687956</v>
+        <v>-0.559995596342152</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.56494067817049</v>
+        <v>-0.617464291202975</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.278073810442122</v>
+        <v>-0.0579810044798051</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0414827405072136</v>
+        <v>-0.241578791476892</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.59330140193551</v>
+        <v>-1.15935886146912</v>
       </c>
       <c r="ES2" t="n">
-        <v>-1.90395199463766</v>
+        <v>-0.450547805017772</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.554301904752813</v>
+        <v>1.07610610734644</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.240452167662184</v>
+        <v>-0.779101369604128</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.873924165387327</v>
+        <v>0.654091192052441</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.999094371817499</v>
+        <v>-0.406869344445104</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.6663768812566</v>
+        <v>1.72535060898129</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0367654519898616</v>
+        <v>-1.1212706979914</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.637475921063278</v>
+        <v>-0.123664051624401</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.273991305311583</v>
+        <v>-0.197318631289087</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.09435438561122</v>
+        <v>0.754139246793648</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.370805013466963</v>
+        <v>0.879127926699873</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.3883507215604</v>
+        <v>0.0346648512962755</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.669305290989787</v>
+        <v>-0.066765559892507</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.554784981846496</v>
+        <v>0.813309524608433</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.365702057802101</v>
+        <v>1.63803420716937</v>
       </c>
       <c r="FH2" t="n">
-        <v>-1.39492740565718</v>
+        <v>-0.766915070390228</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.584493811935275</v>
+        <v>-1.45212743091869</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-1.31388750469734</v>
+        <v>-0.0606484193612879</v>
       </c>
       <c r="FK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
       </c>
       <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
         <v>0</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
@@ -1973,28 +1973,28 @@
         <v>1</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT2" t="n">
         <v>1</v>
       </c>
       <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
         <v>0</v>
       </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
       <c r="FW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA2" t="n">
         <v>1</v>
@@ -2005,517 +2005,517 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.25717443635968</v>
+        <v>2.0269679049625</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.917306735813147</v>
+        <v>-1.12287659993845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191056510121822</v>
+        <v>-0.739477776478781</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.616450430953472</v>
+        <v>1.2922857770498</v>
       </c>
       <c r="E3" t="n">
-        <v>0.100393715439111</v>
+        <v>0.944876555993894</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.77207587967811</v>
+        <v>0.297712757451894</v>
       </c>
       <c r="G3" t="n">
-        <v>0.133212592340433</v>
+        <v>1.22748528628905</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0574922761048644</v>
+        <v>-1.03486494313937</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.47559975437424</v>
+        <v>0.0229076921290398</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.134802712832012</v>
+        <v>-0.179627150335915</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.673459848752171</v>
+        <v>-0.393565371764293</v>
       </c>
       <c r="L3" t="n">
-        <v>0.389749679736775</v>
+        <v>0.0357714205961306</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.825828802593681</v>
+        <v>-1.33754394729972</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.42015479127282</v>
+        <v>-0.417913310684316</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0812021667084154</v>
+        <v>1.49640295137777</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.68608398206904</v>
+        <v>-0.304576105370714</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1.8214723973272</v>
+        <v>1.84225390742666</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.06360417693803</v>
+        <v>-1.0074074741395</v>
       </c>
       <c r="S3" t="n">
-        <v>0.14161811382475</v>
+        <v>0.382786852781891</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.290267932590177</v>
+        <v>1.11744761967299</v>
       </c>
       <c r="U3" t="n">
-        <v>0.349904581920048</v>
+        <v>-1.11053959776891</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22961093170126</v>
+        <v>-0.635481100364664</v>
       </c>
       <c r="W3" t="n">
-        <v>0.675930488737195</v>
+        <v>0.499070314487142</v>
       </c>
       <c r="X3" t="n">
-        <v>0.967504805786541</v>
+        <v>-0.634903967263544</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.293218611499048</v>
+        <v>1.76532042390504</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.17717921459782</v>
+        <v>-1.5122725842947</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.181855160563131</v>
+        <v>0.975440184212009</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.065425990794</v>
+        <v>0.467308448618219</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.0104461150067903</v>
+        <v>1.12709677849874</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.27234492468612</v>
+        <v>-0.091008114111091</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0704685539171475</v>
+        <v>-0.3212429900458</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.0697752047129883</v>
+        <v>0.0628667827888129</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.778960527518005</v>
+        <v>-1.25639785848575</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.05815485468685</v>
+        <v>0.237471751311166</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0887731235139254</v>
+        <v>1.32481073252402</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.188342746314362</v>
+        <v>-0.971337305201372</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.66372259202366</v>
+        <v>-0.348068439373237</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.2903447367597</v>
+        <v>-0.3568100323563</v>
       </c>
       <c r="AM3" t="n">
-        <v>-1.12957833966912</v>
+        <v>-0.0940270467604912</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.71680440283173</v>
+        <v>0.550545973089904</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.05642937850982</v>
+        <v>0.982202556472666</v>
       </c>
       <c r="AP3" t="n">
-        <v>-2.31991113915146</v>
+        <v>-0.455865942336876</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.11790343255889</v>
+        <v>0.643511205170052</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.899438298414263</v>
+        <v>-1.15586212341616</v>
       </c>
       <c r="AS3" t="n">
-        <v>-1.16142079348188</v>
+        <v>-0.590047627420514</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.737648340092179</v>
+        <v>-0.826050883323618</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.296938750467949</v>
+        <v>-0.802164123967081</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.499376650422826</v>
+        <v>0.249252341677495</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.379420324867694</v>
+        <v>0.172231949063691</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.599365613411996</v>
+        <v>-1.80422074260589</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.152782566849891</v>
+        <v>-0.0611801836319229</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-1.13254286877066</v>
+        <v>1.34952904763046</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.35671070586496</v>
+        <v>-0.652109707886303</v>
       </c>
       <c r="BB3" t="n">
-        <v>-1.65530190893668</v>
+        <v>0.587420211893239</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.105438389785172</v>
+        <v>0.2955528126761</v>
       </c>
       <c r="BD3" t="n">
-        <v>-1.29098832472069</v>
+        <v>0.622727696202046</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.893594253486044</v>
+        <v>-0.383499026544332</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.771180088640709</v>
+        <v>0.396204930572432</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.640190219542038</v>
+        <v>-1.70361354389665</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.0225649530250701</v>
+        <v>-1.8121375523301</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.678559452926046</v>
+        <v>-0.845609125120262</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.584357083649753</v>
+        <v>-1.06892218397161</v>
       </c>
       <c r="BK3" t="n">
-        <v>-1.61986813656919</v>
+        <v>-0.247283544386309</v>
       </c>
       <c r="BL3" t="n">
-        <v>-2.94943398508789</v>
+        <v>1.66540587541597</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.981292114168451</v>
+        <v>0.210634486816377</v>
       </c>
       <c r="BN3" t="n">
-        <v>-1.49478397359285</v>
+        <v>0.69347590188504</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.12795918946388</v>
+        <v>-1.04631655258391</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.52559387583062</v>
+        <v>0.0822051898094792</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.338502394087875</v>
+        <v>-0.480966205569093</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0568177086821161</v>
+        <v>0.602264308776435</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.806069474212267</v>
+        <v>0.802278884948816</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.495109613686637</v>
+        <v>0.202524169795104</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.780678567931509</v>
+        <v>-0.0864149840601712</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.669443003738161</v>
+        <v>0.074792656162798</v>
       </c>
       <c r="BW3" t="n">
-        <v>-1.52649243732677</v>
+        <v>-0.166918007205342</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.754020321999578</v>
+        <v>0.682211403435999</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.534803933817695</v>
+        <v>-0.264291762544682</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.05953405122978</v>
+        <v>2.08899517659254</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0109316751169556</v>
+        <v>0.387963692443172</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.61335020590461</v>
+        <v>-0.714005996910177</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.436630501672141</v>
+        <v>-0.472277658551275</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.765024455236844</v>
+        <v>1.82422196754923</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.721573707442562</v>
+        <v>0.108249516310442</v>
       </c>
       <c r="CF3" t="n">
-        <v>-1.10521249839679</v>
+        <v>0.702414408638762</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.428734198888863</v>
+        <v>0.0705496736365738</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.585061069206311</v>
+        <v>-1.5188945732312</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.99642050564146</v>
+        <v>-0.074103404077418</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0.14646673973998</v>
+        <v>-1.55225865823618</v>
       </c>
       <c r="CK3" t="n">
-        <v>-1.27891199747677</v>
+        <v>-1.43866521168</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.56403462744436</v>
+        <v>-1.25781667940137</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.661557154222482</v>
+        <v>0.486650306158029</v>
       </c>
       <c r="CN3" t="n">
-        <v>-1.13667917674153</v>
+        <v>-1.66339364934596</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.0187917304585546</v>
+        <v>0.63829166717015</v>
       </c>
       <c r="CP3" t="n">
-        <v>2.48213484986494</v>
+        <v>-0.828139073766474</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.549110107835552</v>
+        <v>-0.89054517682889</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.229684524950742</v>
+        <v>-2.65089076747987</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0.138876613833823</v>
+        <v>-0.0820704250553026</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.344174901095963</v>
+        <v>-0.052381623062349</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0951663039765532</v>
+        <v>1.99094514980026</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.799511454700424</v>
+        <v>0.0736377959493319</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0.388385066431901</v>
+        <v>-2.14808312839481</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.0847696156841371</v>
+        <v>0.133117640410736</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0.462189648660126</v>
+        <v>1.91258913147716</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-2.09342468693931</v>
+        <v>0.253668824383896</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.43356340778476</v>
+        <v>0.172054309769002</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.24179591822732</v>
+        <v>-0.675576578212713</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0.331639785767746</v>
+        <v>0.549146178446209</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.933574902749577</v>
+        <v>-0.520546136521371</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.250256534117457</v>
+        <v>0.154852569210154</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.384573812220643</v>
+        <v>-0.0952000311466261</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0.587524201181707</v>
+        <v>0.809755423574754</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.352425671442017</v>
+        <v>0.278955735664631</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.389120878908396</v>
+        <v>0.118019809007022</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0.17083649715367</v>
+        <v>-0.595548023654712</v>
       </c>
       <c r="DK3" t="n">
-        <v>2.89412326832989</v>
+        <v>-0.441820591932957</v>
       </c>
       <c r="DL3" t="n">
-        <v>2.04466278670076</v>
+        <v>-0.172590347701716</v>
       </c>
       <c r="DM3" t="n">
-        <v>1.93380844761501</v>
+        <v>0.00780303371863125</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0.135101623557925</v>
+        <v>0.0227869264148322</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0.344370279258834</v>
+        <v>-0.27391575507053</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.148444981994202</v>
+        <v>-1.15733740836321</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.313426742919652</v>
+        <v>1.42909630694124</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.170607629375476</v>
+        <v>-0.839256665659262</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.0091515272722409</v>
+        <v>-0.359074315011797</v>
       </c>
       <c r="DT3" t="n">
-        <v>-1.26970077068861</v>
+        <v>0.451358397860466</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.99115902381711</v>
+        <v>0.926809524042695</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.0211771512357273</v>
+        <v>-1.36499364926538</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.239939985325546</v>
+        <v>1.20203538571472</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0.69277576977861</v>
+        <v>-0.959583678378869</v>
       </c>
       <c r="DY3" t="n">
-        <v>1.04886645922101</v>
+        <v>-1.37582481099069</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0.214988478606458</v>
+        <v>0.0260496736498614</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.554630847870368</v>
+        <v>-0.408883575874093</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0.429063987798024</v>
+        <v>0.143906062439644</v>
       </c>
       <c r="EC3" t="n">
-        <v>-1.40712846230289</v>
+        <v>0.963674251365672</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.283449569288646</v>
+        <v>-0.42814912174436</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.940127458634269</v>
+        <v>-0.956875914089273</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.361539933362843</v>
+        <v>-1.14849061790826</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0.255200999178006</v>
+        <v>0.911908108783435</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.44692191492116</v>
+        <v>-0.514308553975004</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0.0714204959618267</v>
+        <v>-0.936188755880039</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.931121646185129</v>
+        <v>-0.462760033287281</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0.345973929956315</v>
+        <v>0.740682273830748</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0.409002836513697</v>
+        <v>-1.46484924695602</v>
       </c>
       <c r="EM3" t="n">
-        <v>-1.45820125851105</v>
+        <v>-1.37334022702628</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.575829314687956</v>
+        <v>-0.559995596342152</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.56494067817049</v>
+        <v>-0.617464291202975</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0.278073810442122</v>
+        <v>-0.0579810044798051</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.0414827405072136</v>
+        <v>-0.241578791476892</v>
       </c>
       <c r="ER3" t="n">
-        <v>-1.59330140193551</v>
+        <v>-1.15935886146912</v>
       </c>
       <c r="ES3" t="n">
-        <v>-1.90395199463766</v>
+        <v>-0.450547805017772</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.554301904752813</v>
+        <v>1.07610610734644</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.240452167662184</v>
+        <v>-0.779101369604128</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.873924165387327</v>
+        <v>0.654091192052441</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.999094371817499</v>
+        <v>-0.406869344445104</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.6663768812566</v>
+        <v>1.72535060898129</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0367654519898616</v>
+        <v>-1.1212706979914</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.637475921063278</v>
+        <v>-0.123664051624401</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.273991305311583</v>
+        <v>-0.197318631289087</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.09435438561122</v>
+        <v>0.754139246793648</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0.370805013466963</v>
+        <v>0.879127926699873</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.3883507215604</v>
+        <v>0.0346648512962755</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.669305290989787</v>
+        <v>-0.066765559892507</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.554784981846496</v>
+        <v>0.813309524608433</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.365702057802101</v>
+        <v>1.63803420716937</v>
       </c>
       <c r="FH3" t="n">
-        <v>-1.39492740565718</v>
+        <v>-0.766915070390228</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0.584493811935275</v>
+        <v>-1.45212743091869</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-1.31388750469734</v>
+        <v>-0.0606484193612879</v>
       </c>
       <c r="FK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL3" t="n">
         <v>0</v>
       </c>
       <c r="FM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" t="n">
         <v>0</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>1</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
@@ -2527,28 +2527,28 @@
         <v>1</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT3" t="n">
         <v>1</v>
       </c>
       <c r="FU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV3" t="n">
         <v>0</v>
       </c>
-      <c r="FV3" t="n">
-        <v>1</v>
-      </c>
       <c r="FW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA3" t="n">
         <v>1</v>
@@ -2559,517 +2559,517 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.25717443635968</v>
+        <v>2.0269679049625</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.917306735813147</v>
+        <v>-1.12287659993845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191056510121822</v>
+        <v>-0.739477776478781</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.616450430953472</v>
+        <v>1.2922857770498</v>
       </c>
       <c r="E4" t="n">
-        <v>0.100393715439111</v>
+        <v>0.944876555993894</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.77207587967811</v>
+        <v>0.297712757451894</v>
       </c>
       <c r="G4" t="n">
-        <v>0.133212592340433</v>
+        <v>1.22748528628905</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0574922761048644</v>
+        <v>-1.03486494313937</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.47559975437424</v>
+        <v>0.0229076921290398</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.134802712832012</v>
+        <v>-0.179627150335915</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.673459848752171</v>
+        <v>-0.393565371764293</v>
       </c>
       <c r="L4" t="n">
-        <v>0.389749679736775</v>
+        <v>0.0357714205961306</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.825828802593681</v>
+        <v>-1.33754394729972</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.42015479127282</v>
+        <v>-0.417913310684316</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0812021667084154</v>
+        <v>1.49640295137777</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.68608398206904</v>
+        <v>-0.304576105370714</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.8214723973272</v>
+        <v>1.84225390742666</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.06360417693803</v>
+        <v>-1.0074074741395</v>
       </c>
       <c r="S4" t="n">
-        <v>0.14161811382475</v>
+        <v>0.382786852781891</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.290267932590177</v>
+        <v>1.11744761967299</v>
       </c>
       <c r="U4" t="n">
-        <v>0.349904581920048</v>
+        <v>-1.11053959776891</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22961093170126</v>
+        <v>-0.635481100364664</v>
       </c>
       <c r="W4" t="n">
-        <v>0.675930488737195</v>
+        <v>0.499070314487142</v>
       </c>
       <c r="X4" t="n">
-        <v>0.967504805786541</v>
+        <v>-0.634903967263544</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.293218611499048</v>
+        <v>1.76532042390504</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.17717921459782</v>
+        <v>-1.5122725842947</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.181855160563131</v>
+        <v>0.975440184212009</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.065425990794</v>
+        <v>0.467308448618219</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.0104461150067903</v>
+        <v>1.12709677849874</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.27234492468612</v>
+        <v>-0.091008114111091</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0704685539171475</v>
+        <v>-0.3212429900458</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.0697752047129883</v>
+        <v>0.0628667827888129</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.778960527518005</v>
+        <v>-1.25639785848575</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.05815485468685</v>
+        <v>0.237471751311166</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0887731235139254</v>
+        <v>1.32481073252402</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.188342746314362</v>
+        <v>-0.971337305201372</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.66372259202366</v>
+        <v>-0.348068439373237</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.2903447367597</v>
+        <v>-0.3568100323563</v>
       </c>
       <c r="AM4" t="n">
-        <v>-1.12957833966912</v>
+        <v>-0.0940270467604912</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.71680440283173</v>
+        <v>0.550545973089904</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.05642937850982</v>
+        <v>0.982202556472666</v>
       </c>
       <c r="AP4" t="n">
-        <v>-2.31991113915146</v>
+        <v>-0.455865942336876</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.11790343255889</v>
+        <v>0.643511205170052</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.899438298414263</v>
+        <v>-1.15586212341616</v>
       </c>
       <c r="AS4" t="n">
-        <v>-1.16142079348188</v>
+        <v>-0.590047627420514</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.737648340092179</v>
+        <v>-0.826050883323618</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.296938750467949</v>
+        <v>-0.802164123967081</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.499376650422826</v>
+        <v>0.249252341677495</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.379420324867694</v>
+        <v>0.172231949063691</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.599365613411996</v>
+        <v>-1.80422074260589</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.152782566849891</v>
+        <v>-0.0611801836319229</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-1.13254286877066</v>
+        <v>1.34952904763046</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.35671070586496</v>
+        <v>-0.652109707886303</v>
       </c>
       <c r="BB4" t="n">
-        <v>-1.65530190893668</v>
+        <v>0.587420211893239</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.105438389785172</v>
+        <v>0.2955528126761</v>
       </c>
       <c r="BD4" t="n">
-        <v>-1.29098832472069</v>
+        <v>0.622727696202046</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.893594253486044</v>
+        <v>-0.383499026544332</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.771180088640709</v>
+        <v>0.396204930572432</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.640190219542038</v>
+        <v>-1.70361354389665</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.0225649530250701</v>
+        <v>-1.8121375523301</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.678559452926046</v>
+        <v>-0.845609125120262</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.584357083649753</v>
+        <v>-1.06892218397161</v>
       </c>
       <c r="BK4" t="n">
-        <v>-1.61986813656919</v>
+        <v>-0.247283544386309</v>
       </c>
       <c r="BL4" t="n">
-        <v>-2.94943398508789</v>
+        <v>1.66540587541597</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.981292114168451</v>
+        <v>0.210634486816377</v>
       </c>
       <c r="BN4" t="n">
-        <v>-1.49478397359285</v>
+        <v>0.69347590188504</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0.12795918946388</v>
+        <v>-1.04631655258391</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.52559387583062</v>
+        <v>0.0822051898094792</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.338502394087875</v>
+        <v>-0.480966205569093</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0568177086821161</v>
+        <v>0.602264308776435</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.806069474212267</v>
+        <v>0.802278884948816</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.495109613686637</v>
+        <v>0.202524169795104</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.780678567931509</v>
+        <v>-0.0864149840601712</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.669443003738161</v>
+        <v>0.074792656162798</v>
       </c>
       <c r="BW4" t="n">
-        <v>-1.52649243732677</v>
+        <v>-0.166918007205342</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.754020321999578</v>
+        <v>0.682211403435999</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.534803933817695</v>
+        <v>-0.264291762544682</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.05953405122978</v>
+        <v>2.08899517659254</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0109316751169556</v>
+        <v>0.387963692443172</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.61335020590461</v>
+        <v>-0.714005996910177</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.436630501672141</v>
+        <v>-0.472277658551275</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.765024455236844</v>
+        <v>1.82422196754923</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.721573707442562</v>
+        <v>0.108249516310442</v>
       </c>
       <c r="CF4" t="n">
-        <v>-1.10521249839679</v>
+        <v>0.702414408638762</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.428734198888863</v>
+        <v>0.0705496736365738</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.585061069206311</v>
+        <v>-1.5188945732312</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.99642050564146</v>
+        <v>-0.074103404077418</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.14646673973998</v>
+        <v>-1.55225865823618</v>
       </c>
       <c r="CK4" t="n">
-        <v>-1.27891199747677</v>
+        <v>-1.43866521168</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.56403462744436</v>
+        <v>-1.25781667940137</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.661557154222482</v>
+        <v>0.486650306158029</v>
       </c>
       <c r="CN4" t="n">
-        <v>-1.13667917674153</v>
+        <v>-1.66339364934596</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.0187917304585546</v>
+        <v>0.63829166717015</v>
       </c>
       <c r="CP4" t="n">
-        <v>2.48213484986494</v>
+        <v>-0.828139073766474</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.549110107835552</v>
+        <v>-0.89054517682889</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.229684524950742</v>
+        <v>-2.65089076747987</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.138876613833823</v>
+        <v>-0.0820704250553026</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.344174901095963</v>
+        <v>-0.052381623062349</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.0951663039765532</v>
+        <v>1.99094514980026</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.799511454700424</v>
+        <v>0.0736377959493319</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.388385066431901</v>
+        <v>-2.14808312839481</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0847696156841371</v>
+        <v>0.133117640410736</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.462189648660126</v>
+        <v>1.91258913147716</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-2.09342468693931</v>
+        <v>0.253668824383896</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.43356340778476</v>
+        <v>0.172054309769002</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.24179591822732</v>
+        <v>-0.675576578212713</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0.331639785767746</v>
+        <v>0.549146178446209</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.933574902749577</v>
+        <v>-0.520546136521371</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.250256534117457</v>
+        <v>0.154852569210154</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.384573812220643</v>
+        <v>-0.0952000311466261</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.587524201181707</v>
+        <v>0.809755423574754</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.352425671442017</v>
+        <v>0.278955735664631</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.389120878908396</v>
+        <v>0.118019809007022</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0.17083649715367</v>
+        <v>-0.595548023654712</v>
       </c>
       <c r="DK4" t="n">
-        <v>2.89412326832989</v>
+        <v>-0.441820591932957</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.04466278670076</v>
+        <v>-0.172590347701716</v>
       </c>
       <c r="DM4" t="n">
-        <v>1.93380844761501</v>
+        <v>0.00780303371863125</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0.135101623557925</v>
+        <v>0.0227869264148322</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.344370279258834</v>
+        <v>-0.27391575507053</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.148444981994202</v>
+        <v>-1.15733740836321</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.313426742919652</v>
+        <v>1.42909630694124</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.170607629375476</v>
+        <v>-0.839256665659262</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.0091515272722409</v>
+        <v>-0.359074315011797</v>
       </c>
       <c r="DT4" t="n">
-        <v>-1.26970077068861</v>
+        <v>0.451358397860466</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.99115902381711</v>
+        <v>0.926809524042695</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.0211771512357273</v>
+        <v>-1.36499364926538</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.239939985325546</v>
+        <v>1.20203538571472</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.69277576977861</v>
+        <v>-0.959583678378869</v>
       </c>
       <c r="DY4" t="n">
-        <v>1.04886645922101</v>
+        <v>-1.37582481099069</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0.214988478606458</v>
+        <v>0.0260496736498614</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.554630847870368</v>
+        <v>-0.408883575874093</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.429063987798024</v>
+        <v>0.143906062439644</v>
       </c>
       <c r="EC4" t="n">
-        <v>-1.40712846230289</v>
+        <v>0.963674251365672</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.283449569288646</v>
+        <v>-0.42814912174436</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.940127458634269</v>
+        <v>-0.956875914089273</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.361539933362843</v>
+        <v>-1.14849061790826</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0.255200999178006</v>
+        <v>0.911908108783435</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.44692191492116</v>
+        <v>-0.514308553975004</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.0714204959618267</v>
+        <v>-0.936188755880039</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.931121646185129</v>
+        <v>-0.462760033287281</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.345973929956315</v>
+        <v>0.740682273830748</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0.409002836513697</v>
+        <v>-1.46484924695602</v>
       </c>
       <c r="EM4" t="n">
-        <v>-1.45820125851105</v>
+        <v>-1.37334022702628</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.575829314687956</v>
+        <v>-0.559995596342152</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.56494067817049</v>
+        <v>-0.617464291202975</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0.278073810442122</v>
+        <v>-0.0579810044798051</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0414827405072136</v>
+        <v>-0.241578791476892</v>
       </c>
       <c r="ER4" t="n">
-        <v>-1.59330140193551</v>
+        <v>-1.15935886146912</v>
       </c>
       <c r="ES4" t="n">
-        <v>-1.90395199463766</v>
+        <v>-0.450547805017772</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.554301904752813</v>
+        <v>1.07610610734644</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.240452167662184</v>
+        <v>-0.779101369604128</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.873924165387327</v>
+        <v>0.654091192052441</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.999094371817499</v>
+        <v>-0.406869344445104</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.6663768812566</v>
+        <v>1.72535060898129</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0367654519898616</v>
+        <v>-1.1212706979914</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.637475921063278</v>
+        <v>-0.123664051624401</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.273991305311583</v>
+        <v>-0.197318631289087</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.09435438561122</v>
+        <v>0.754139246793648</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0.370805013466963</v>
+        <v>0.879127926699873</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.3883507215604</v>
+        <v>0.0346648512962755</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.669305290989787</v>
+        <v>-0.066765559892507</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.554784981846496</v>
+        <v>0.813309524608433</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.365702057802101</v>
+        <v>1.63803420716937</v>
       </c>
       <c r="FH4" t="n">
-        <v>-1.39492740565718</v>
+        <v>-0.766915070390228</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.584493811935275</v>
+        <v>-1.45212743091869</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-1.31388750469734</v>
+        <v>-0.0606484193612879</v>
       </c>
       <c r="FK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL4" t="n">
         <v>0</v>
       </c>
       <c r="FM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO4" t="n">
         <v>0</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>1</v>
       </c>
       <c r="FP4" t="n">
         <v>0</v>
@@ -3081,28 +3081,28 @@
         <v>1</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT4" t="n">
         <v>1</v>
       </c>
       <c r="FU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV4" t="n">
         <v>0</v>
       </c>
-      <c r="FV4" t="n">
-        <v>1</v>
-      </c>
       <c r="FW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA4" t="n">
         <v>1</v>

--- a/file_checks/dataset_correct_genes_wrong_pheno.xlsx
+++ b/file_checks/dataset_correct_genes_wrong_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">1017</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve">RR_rorS_risk_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_HER2_scmod1</t>
   </si>
   <si>
     <t xml:space="preserve">RR_Endo</t>
@@ -1448,505 +1457,514 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0269679049625</v>
+        <v>0.602433278191006</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.12287659993845</v>
+        <v>0.181324699637646</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.739477776478781</v>
+        <v>-1.23669835287022</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2922857770498</v>
+        <v>0.13206129112578</v>
       </c>
       <c r="E2" t="n">
-        <v>0.944876555993894</v>
+        <v>1.4469807117564</v>
       </c>
       <c r="F2" t="n">
-        <v>0.297712757451894</v>
+        <v>-0.638340147345184</v>
       </c>
       <c r="G2" t="n">
-        <v>1.22748528628905</v>
+        <v>-0.0370964861343703</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.03486494313937</v>
+        <v>-0.547082737101707</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0229076921290398</v>
+        <v>0.264284513263925</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.179627150335915</v>
+        <v>0.463321330864724</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.393565371764293</v>
+        <v>-0.818854059948308</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0357714205961306</v>
+        <v>1.3923452490295</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.33754394729972</v>
+        <v>0.876305001483019</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.417913310684316</v>
+        <v>-1.37365867542092</v>
       </c>
       <c r="O2" t="n">
-        <v>1.49640295137777</v>
+        <v>-0.410944409073218</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.304576105370714</v>
+        <v>-0.521010532254349</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84225390742666</v>
+        <v>2.51812658257335</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.0074074741395</v>
+        <v>-0.476595675803831</v>
       </c>
       <c r="S2" t="n">
-        <v>0.382786852781891</v>
+        <v>-0.0387614137147646</v>
       </c>
       <c r="T2" t="n">
-        <v>1.11744761967299</v>
+        <v>1.98560623661469</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.11053959776891</v>
+        <v>0.963609738656143</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.635481100364664</v>
+        <v>-0.383789598659379</v>
       </c>
       <c r="W2" t="n">
-        <v>0.499070314487142</v>
+        <v>-3.05248609060827</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.634903967263544</v>
+        <v>-0.949339149558008</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.76532042390504</v>
+        <v>0.479097134938374</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.5122725842947</v>
+        <v>1.51327089557223</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.975440184212009</v>
+        <v>-0.212479601396949</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.467308448618219</v>
+        <v>0.328684016917169</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.12709677849874</v>
+        <v>0.356933463379233</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.091008114111091</v>
+        <v>0.708044456939323</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.3212429900458</v>
+        <v>-0.403484636971652</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0628667827888129</v>
+        <v>-1.20852907726898</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.25639785848575</v>
+        <v>1.18949025603956</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.237471751311166</v>
+        <v>-0.289828693103413</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.32481073252402</v>
+        <v>-0.00233524678718965</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.971337305201372</v>
+        <v>-1.09893154636306</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.348068439373237</v>
+        <v>0.69106012176276</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.3568100323563</v>
+        <v>0.0544221056667081</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.0940270467604912</v>
+        <v>-0.0920823642200254</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.550545973089904</v>
+        <v>1.83981952522223</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.982202556472666</v>
+        <v>1.16868375120629</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.455865942336876</v>
+        <v>-1.14167627893417</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.643511205170052</v>
+        <v>-0.173632498893324</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.15586212341616</v>
+        <v>-0.776403689009663</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.590047627420514</v>
+        <v>0.714307123694708</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.826050883323618</v>
+        <v>0.664230734198293</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.802164123967081</v>
+        <v>-1.10051526976182</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.249252341677495</v>
+        <v>1.34661876575705</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.172231949063691</v>
+        <v>-0.698765311699405</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.80422074260589</v>
+        <v>0.244248967228942</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.0611801836319229</v>
+        <v>-0.251536273463039</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.34952904763046</v>
+        <v>0.392215609046361</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.652109707886303</v>
+        <v>-1.49010049144578</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.587420211893239</v>
+        <v>-1.87279394072949</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.2955528126761</v>
+        <v>2.23690471660684</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.622727696202046</v>
+        <v>-0.00603190916809144</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.383499026544332</v>
+        <v>0.118597686971839</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.396204930572432</v>
+        <v>0.911358790113814</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.70361354389665</v>
+        <v>-0.922134787625728</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.8121375523301</v>
+        <v>0.762801295034672</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.845609125120262</v>
+        <v>0.0941637847682942</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.06892218397161</v>
+        <v>-0.0718279220987144</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.247283544386309</v>
+        <v>0.325880393110261</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.66540587541597</v>
+        <v>0.179405464396944</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.210634486816377</v>
+        <v>-1.66542768633585</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.69347590188504</v>
+        <v>0.512594607396252</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.04631655258391</v>
+        <v>-0.930609667971273</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0822051898094792</v>
+        <v>-0.748124578306508</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.480966205569093</v>
+        <v>0.973103125118413</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.602264308776435</v>
+        <v>-0.346119360375332</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.802278884948816</v>
+        <v>-0.145732089888804</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.202524169795104</v>
+        <v>-0.298254781758166</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.0864149840601712</v>
+        <v>0.127416467598095</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.074792656162798</v>
+        <v>-2.4024395769059</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.166918007205342</v>
+        <v>-1.04258174386077</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.682211403435999</v>
+        <v>-1.07932792856397</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.264291762544682</v>
+        <v>-0.0531521845184409</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.08899517659254</v>
+        <v>1.77371388397705</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.387963692443172</v>
+        <v>-0.325961153640442</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.714005996910177</v>
+        <v>-0.126065752933213</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.472277658551275</v>
+        <v>-1.22251822602761</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.82422196754923</v>
+        <v>-0.3844459992003</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.108249516310442</v>
+        <v>0.67998904368344</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.702414408638762</v>
+        <v>0.353212955588922</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0705496736365738</v>
+        <v>-0.558352263074225</v>
       </c>
       <c r="CH2" t="n">
-        <v>-1.5188945732312</v>
+        <v>-1.44267613254391</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.074103404077418</v>
+        <v>-0.0383425605552795</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-1.55225865823618</v>
+        <v>0.261909980327175</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.43866521168</v>
+        <v>1.04169399387392</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.25781667940137</v>
+        <v>1.07718270164434</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.486650306158029</v>
+        <v>-0.387132705774068</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.66339364934596</v>
+        <v>0.0732436734930061</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.63829166717015</v>
+        <v>0.541110578636258</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.828139073766474</v>
+        <v>0.107144693905141</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.89054517682889</v>
+        <v>-0.517313824619477</v>
       </c>
       <c r="CR2" t="n">
-        <v>-2.65089076747987</v>
+        <v>-0.8611405186039</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.0820704250553026</v>
+        <v>-0.480061153854785</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.052381623062349</v>
+        <v>-1.2160858648025</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.99094514980026</v>
+        <v>-2.07799055174356</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0736377959493319</v>
+        <v>1.29946727263479</v>
       </c>
       <c r="CW2" t="n">
-        <v>-2.14808312839481</v>
+        <v>-0.220402866398169</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.133117640410736</v>
+        <v>1.09532556724069</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.91258913147716</v>
+        <v>-0.119532050984514</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.253668824383896</v>
+        <v>-0.487846503205815</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.172054309769002</v>
+        <v>1.2363223367627</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.675576578212713</v>
+        <v>-0.367882072673389</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.549146178446209</v>
+        <v>-0.098214472139766</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.520546136521371</v>
+        <v>0.569243554107022</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.154852569210154</v>
+        <v>1.85444138185633</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.0952000311466261</v>
+        <v>0.692465209815711</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.809755423574754</v>
+        <v>0.665095243266177</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.278955735664631</v>
+        <v>-0.84090814246863</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.118019809007022</v>
+        <v>1.63271221754615</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.595548023654712</v>
+        <v>-1.43234528447415</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.441820591932957</v>
+        <v>-1.7861356050951</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.172590347701716</v>
+        <v>-0.287018611557671</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.00780303371863125</v>
+        <v>-1.20083631317814</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0227869264148322</v>
+        <v>1.10186632167597</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.27391575507053</v>
+        <v>0.0317320715135085</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.15733740836321</v>
+        <v>-0.961359865030849</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.42909630694124</v>
+        <v>1.34913768389885</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.839256665659262</v>
+        <v>-0.433048821216448</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.359074315011797</v>
+        <v>1.38262095012032</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.451358397860466</v>
+        <v>-0.748642084269847</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.926809524042695</v>
+        <v>-0.981270410158602</v>
       </c>
       <c r="DV2" t="n">
-        <v>-1.36499364926538</v>
+        <v>-0.132028993257013</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.20203538571472</v>
+        <v>0.358248578796583</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.959583678378869</v>
+        <v>2.33905969997238</v>
       </c>
       <c r="DY2" t="n">
-        <v>-1.37582481099069</v>
+        <v>0.185201117023159</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0260496736498614</v>
+        <v>1.55578329913123</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.408883575874093</v>
+        <v>-0.80887894596283</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.143906062439644</v>
+        <v>-1.65524916240167</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.963674251365672</v>
+        <v>-0.0423315885531244</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.42814912174436</v>
+        <v>-0.303459510742705</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.956875914089273</v>
+        <v>0.781596630183556</v>
       </c>
       <c r="EF2" t="n">
-        <v>-1.14849061790826</v>
+        <v>0.128902880218637</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.911908108783435</v>
+        <v>-0.972986356372563</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.514308553975004</v>
+        <v>0.21823242675311</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.936188755880039</v>
+        <v>-0.404776345918033</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.462760033287281</v>
+        <v>0.609917034099478</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.740682273830748</v>
+        <v>-0.459558036072652</v>
       </c>
       <c r="EL2" t="n">
-        <v>-1.46484924695602</v>
+        <v>-0.640003413808731</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.37334022702628</v>
+        <v>-0.0330668648555899</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.559995596342152</v>
+        <v>-1.62657611695616</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.617464291202975</v>
+        <v>-0.0565175655232406</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.0579810044798051</v>
+        <v>1.68430945220869</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.241578791476892</v>
+        <v>-1.40280487599917</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.15935886146912</v>
+        <v>-1.2673964969801</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.450547805017772</v>
+        <v>0.664212991821376</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.07610610734644</v>
+        <v>-0.484608464951844</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.779101369604128</v>
+        <v>0.333422575096807</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.654091192052441</v>
+        <v>0.413733626841098</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.406869344445104</v>
+        <v>-0.213552496666033</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.72535060898129</v>
+        <v>-0.237719113246086</v>
       </c>
       <c r="EY2" t="n">
-        <v>-1.1212706979914</v>
+        <v>0.904173975922596</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.123664051624401</v>
+        <v>-0.565515157317887</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.197318631289087</v>
+        <v>0.0510461686441939</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.754139246793648</v>
+        <v>1.00861290486046</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.879127926699873</v>
+        <v>1.41448493044205</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0346648512962755</v>
+        <v>-0.442378200563576</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.066765559892507</v>
+        <v>0.602957988524786</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.813309524608433</v>
+        <v>-0.471158798554057</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.63803420716937</v>
+        <v>-0.98126247505506</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.766915070390228</v>
+        <v>-0.282270017814612</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.45212743091869</v>
+        <v>-1.28806720572384</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.0606484193612879</v>
+        <v>0.123188071980059</v>
       </c>
       <c r="FK2" t="n">
         <v>1</v>
@@ -1958,549 +1976,558 @@
         <v>1</v>
       </c>
       <c r="FN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
         <v>0</v>
       </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
       <c r="FU2" t="n">
         <v>1</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX2" t="n">
         <v>0</v>
       </c>
       <c r="FY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="n">
         <v>0</v>
       </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
       <c r="GB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0269679049625</v>
+        <v>0.602433278191006</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.12287659993845</v>
+        <v>0.181324699637646</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.739477776478781</v>
+        <v>-1.23669835287022</v>
       </c>
       <c r="D3" t="n">
-        <v>1.2922857770498</v>
+        <v>0.13206129112578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.944876555993894</v>
+        <v>1.4469807117564</v>
       </c>
       <c r="F3" t="n">
-        <v>0.297712757451894</v>
+        <v>-0.638340147345184</v>
       </c>
       <c r="G3" t="n">
-        <v>1.22748528628905</v>
+        <v>-0.0370964861343703</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.03486494313937</v>
+        <v>-0.547082737101707</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0229076921290398</v>
+        <v>0.264284513263925</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.179627150335915</v>
+        <v>0.463321330864724</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.393565371764293</v>
+        <v>-0.818854059948308</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0357714205961306</v>
+        <v>1.3923452490295</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.33754394729972</v>
+        <v>0.876305001483019</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.417913310684316</v>
+        <v>-1.37365867542092</v>
       </c>
       <c r="O3" t="n">
-        <v>1.49640295137777</v>
+        <v>-0.410944409073218</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.304576105370714</v>
+        <v>-0.521010532254349</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84225390742666</v>
+        <v>2.51812658257335</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.0074074741395</v>
+        <v>-0.476595675803831</v>
       </c>
       <c r="S3" t="n">
-        <v>0.382786852781891</v>
+        <v>-0.0387614137147646</v>
       </c>
       <c r="T3" t="n">
-        <v>1.11744761967299</v>
+        <v>1.98560623661469</v>
       </c>
       <c r="U3" t="n">
-        <v>-1.11053959776891</v>
+        <v>0.963609738656143</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.635481100364664</v>
+        <v>-0.383789598659379</v>
       </c>
       <c r="W3" t="n">
-        <v>0.499070314487142</v>
+        <v>-3.05248609060827</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.634903967263544</v>
+        <v>-0.949339149558008</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.76532042390504</v>
+        <v>0.479097134938374</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.5122725842947</v>
+        <v>1.51327089557223</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.975440184212009</v>
+        <v>-0.212479601396949</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.467308448618219</v>
+        <v>0.328684016917169</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.12709677849874</v>
+        <v>0.356933463379233</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.091008114111091</v>
+        <v>0.708044456939323</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.3212429900458</v>
+        <v>-0.403484636971652</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0628667827888129</v>
+        <v>-1.20852907726898</v>
       </c>
       <c r="AG3" t="n">
-        <v>-1.25639785848575</v>
+        <v>1.18949025603956</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.237471751311166</v>
+        <v>-0.289828693103413</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.32481073252402</v>
+        <v>-0.00233524678718965</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.971337305201372</v>
+        <v>-1.09893154636306</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.348068439373237</v>
+        <v>0.69106012176276</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.3568100323563</v>
+        <v>0.0544221056667081</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.0940270467604912</v>
+        <v>-0.0920823642200254</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.550545973089904</v>
+        <v>1.83981952522223</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.982202556472666</v>
+        <v>1.16868375120629</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.455865942336876</v>
+        <v>-1.14167627893417</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.643511205170052</v>
+        <v>-0.173632498893324</v>
       </c>
       <c r="AR3" t="n">
-        <v>-1.15586212341616</v>
+        <v>-0.776403689009663</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.590047627420514</v>
+        <v>0.714307123694708</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.826050883323618</v>
+        <v>0.664230734198293</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.802164123967081</v>
+        <v>-1.10051526976182</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.249252341677495</v>
+        <v>1.34661876575705</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.172231949063691</v>
+        <v>-0.698765311699405</v>
       </c>
       <c r="AX3" t="n">
-        <v>-1.80422074260589</v>
+        <v>0.244248967228942</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.0611801836319229</v>
+        <v>-0.251536273463039</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.34952904763046</v>
+        <v>0.392215609046361</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.652109707886303</v>
+        <v>-1.49010049144578</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.587420211893239</v>
+        <v>-1.87279394072949</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.2955528126761</v>
+        <v>2.23690471660684</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.622727696202046</v>
+        <v>-0.00603190916809144</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.383499026544332</v>
+        <v>0.118597686971839</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.396204930572432</v>
+        <v>0.911358790113814</v>
       </c>
       <c r="BG3" t="n">
-        <v>-1.70361354389665</v>
+        <v>-0.922134787625728</v>
       </c>
       <c r="BH3" t="n">
-        <v>-1.8121375523301</v>
+        <v>0.762801295034672</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.845609125120262</v>
+        <v>0.0941637847682942</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-1.06892218397161</v>
+        <v>-0.0718279220987144</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.247283544386309</v>
+        <v>0.325880393110261</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.66540587541597</v>
+        <v>0.179405464396944</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.210634486816377</v>
+        <v>-1.66542768633585</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.69347590188504</v>
+        <v>0.512594607396252</v>
       </c>
       <c r="BO3" t="n">
-        <v>-1.04631655258391</v>
+        <v>-0.930609667971273</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0822051898094792</v>
+        <v>-0.748124578306508</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.480966205569093</v>
+        <v>0.973103125118413</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.602264308776435</v>
+        <v>-0.346119360375332</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.802278884948816</v>
+        <v>-0.145732089888804</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.202524169795104</v>
+        <v>-0.298254781758166</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.0864149840601712</v>
+        <v>0.127416467598095</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.074792656162798</v>
+        <v>-2.4024395769059</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.166918007205342</v>
+        <v>-1.04258174386077</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.682211403435999</v>
+        <v>-1.07932792856397</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.264291762544682</v>
+        <v>-0.0531521845184409</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.08899517659254</v>
+        <v>1.77371388397705</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.387963692443172</v>
+        <v>-0.325961153640442</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0.714005996910177</v>
+        <v>-0.126065752933213</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.472277658551275</v>
+        <v>-1.22251822602761</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.82422196754923</v>
+        <v>-0.3844459992003</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.108249516310442</v>
+        <v>0.67998904368344</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.702414408638762</v>
+        <v>0.353212955588922</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0705496736365738</v>
+        <v>-0.558352263074225</v>
       </c>
       <c r="CH3" t="n">
-        <v>-1.5188945732312</v>
+        <v>-1.44267613254391</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0.074103404077418</v>
+        <v>-0.0383425605552795</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-1.55225865823618</v>
+        <v>0.261909980327175</v>
       </c>
       <c r="CK3" t="n">
-        <v>-1.43866521168</v>
+        <v>1.04169399387392</v>
       </c>
       <c r="CL3" t="n">
-        <v>-1.25781667940137</v>
+        <v>1.07718270164434</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.486650306158029</v>
+        <v>-0.387132705774068</v>
       </c>
       <c r="CN3" t="n">
-        <v>-1.66339364934596</v>
+        <v>0.0732436734930061</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.63829166717015</v>
+        <v>0.541110578636258</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.828139073766474</v>
+        <v>0.107144693905141</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.89054517682889</v>
+        <v>-0.517313824619477</v>
       </c>
       <c r="CR3" t="n">
-        <v>-2.65089076747987</v>
+        <v>-0.8611405186039</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0.0820704250553026</v>
+        <v>-0.480061153854785</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0.052381623062349</v>
+        <v>-1.2160858648025</v>
       </c>
       <c r="CU3" t="n">
-        <v>1.99094514980026</v>
+        <v>-2.07799055174356</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0736377959493319</v>
+        <v>1.29946727263479</v>
       </c>
       <c r="CW3" t="n">
-        <v>-2.14808312839481</v>
+        <v>-0.220402866398169</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.133117640410736</v>
+        <v>1.09532556724069</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.91258913147716</v>
+        <v>-0.119532050984514</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.253668824383896</v>
+        <v>-0.487846503205815</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.172054309769002</v>
+        <v>1.2363223367627</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.675576578212713</v>
+        <v>-0.367882072673389</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.549146178446209</v>
+        <v>-0.098214472139766</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.520546136521371</v>
+        <v>0.569243554107022</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.154852569210154</v>
+        <v>1.85444138185633</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0.0952000311466261</v>
+        <v>0.692465209815711</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.809755423574754</v>
+        <v>0.665095243266177</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.278955735664631</v>
+        <v>-0.84090814246863</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.118019809007022</v>
+        <v>1.63271221754615</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0.595548023654712</v>
+        <v>-1.43234528447415</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0.441820591932957</v>
+        <v>-1.7861356050951</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.172590347701716</v>
+        <v>-0.287018611557671</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.00780303371863125</v>
+        <v>-1.20083631317814</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0227869264148322</v>
+        <v>1.10186632167597</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0.27391575507053</v>
+        <v>0.0317320715135085</v>
       </c>
       <c r="DP3" t="n">
-        <v>-1.15733740836321</v>
+        <v>-0.961359865030849</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.42909630694124</v>
+        <v>1.34913768389885</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.839256665659262</v>
+        <v>-0.433048821216448</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.359074315011797</v>
+        <v>1.38262095012032</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.451358397860466</v>
+        <v>-0.748642084269847</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.926809524042695</v>
+        <v>-0.981270410158602</v>
       </c>
       <c r="DV3" t="n">
-        <v>-1.36499364926538</v>
+        <v>-0.132028993257013</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.20203538571472</v>
+        <v>0.358248578796583</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0.959583678378869</v>
+        <v>2.33905969997238</v>
       </c>
       <c r="DY3" t="n">
-        <v>-1.37582481099069</v>
+        <v>0.185201117023159</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0260496736498614</v>
+        <v>1.55578329913123</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.408883575874093</v>
+        <v>-0.80887894596283</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.143906062439644</v>
+        <v>-1.65524916240167</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.963674251365672</v>
+        <v>-0.0423315885531244</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0.42814912174436</v>
+        <v>-0.303459510742705</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.956875914089273</v>
+        <v>0.781596630183556</v>
       </c>
       <c r="EF3" t="n">
-        <v>-1.14849061790826</v>
+        <v>0.128902880218637</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.911908108783435</v>
+        <v>-0.972986356372563</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.514308553975004</v>
+        <v>0.21823242675311</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0.936188755880039</v>
+        <v>-0.404776345918033</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.462760033287281</v>
+        <v>0.609917034099478</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.740682273830748</v>
+        <v>-0.459558036072652</v>
       </c>
       <c r="EL3" t="n">
-        <v>-1.46484924695602</v>
+        <v>-0.640003413808731</v>
       </c>
       <c r="EM3" t="n">
-        <v>-1.37334022702628</v>
+        <v>-0.0330668648555899</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.559995596342152</v>
+        <v>-1.62657611695616</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.617464291202975</v>
+        <v>-0.0565175655232406</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0.0579810044798051</v>
+        <v>1.68430945220869</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.241578791476892</v>
+        <v>-1.40280487599917</v>
       </c>
       <c r="ER3" t="n">
-        <v>-1.15935886146912</v>
+        <v>-1.2673964969801</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.450547805017772</v>
+        <v>0.664212991821376</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.07610610734644</v>
+        <v>-0.484608464951844</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0.779101369604128</v>
+        <v>0.333422575096807</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.654091192052441</v>
+        <v>0.413733626841098</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.406869344445104</v>
+        <v>-0.213552496666033</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.72535060898129</v>
+        <v>-0.237719113246086</v>
       </c>
       <c r="EY3" t="n">
-        <v>-1.1212706979914</v>
+        <v>0.904173975922596</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.123664051624401</v>
+        <v>-0.565515157317887</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0.197318631289087</v>
+        <v>0.0510461686441939</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.754139246793648</v>
+        <v>1.00861290486046</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.879127926699873</v>
+        <v>1.41448493044205</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0346648512962755</v>
+        <v>-0.442378200563576</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0.066765559892507</v>
+        <v>0.602957988524786</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.813309524608433</v>
+        <v>-0.471158798554057</v>
       </c>
       <c r="FG3" t="n">
-        <v>1.63803420716937</v>
+        <v>-0.98126247505506</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0.766915070390228</v>
+        <v>-0.282270017814612</v>
       </c>
       <c r="FI3" t="n">
-        <v>-1.45212743091869</v>
+        <v>-1.28806720572384</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.0606484193612879</v>
+        <v>0.123188071980059</v>
       </c>
       <c r="FK3" t="n">
         <v>1</v>
@@ -2512,549 +2539,558 @@
         <v>1</v>
       </c>
       <c r="FN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT3" t="n">
         <v>0</v>
       </c>
-      <c r="FR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>1</v>
-      </c>
       <c r="FU3" t="n">
         <v>1</v>
       </c>
       <c r="FV3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX3" t="n">
         <v>0</v>
       </c>
       <c r="FY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA3" t="n">
         <v>0</v>
       </c>
-      <c r="FZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>1</v>
-      </c>
       <c r="GB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0269679049625</v>
+        <v>0.602433278191006</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.12287659993845</v>
+        <v>0.181324699637646</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.739477776478781</v>
+        <v>-1.23669835287022</v>
       </c>
       <c r="D4" t="n">
-        <v>1.2922857770498</v>
+        <v>0.13206129112578</v>
       </c>
       <c r="E4" t="n">
-        <v>0.944876555993894</v>
+        <v>1.4469807117564</v>
       </c>
       <c r="F4" t="n">
-        <v>0.297712757451894</v>
+        <v>-0.638340147345184</v>
       </c>
       <c r="G4" t="n">
-        <v>1.22748528628905</v>
+        <v>-0.0370964861343703</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.03486494313937</v>
+        <v>-0.547082737101707</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0229076921290398</v>
+        <v>0.264284513263925</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.179627150335915</v>
+        <v>0.463321330864724</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.393565371764293</v>
+        <v>-0.818854059948308</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0357714205961306</v>
+        <v>1.3923452490295</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.33754394729972</v>
+        <v>0.876305001483019</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.417913310684316</v>
+        <v>-1.37365867542092</v>
       </c>
       <c r="O4" t="n">
-        <v>1.49640295137777</v>
+        <v>-0.410944409073218</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.304576105370714</v>
+        <v>-0.521010532254349</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84225390742666</v>
+        <v>2.51812658257335</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.0074074741395</v>
+        <v>-0.476595675803831</v>
       </c>
       <c r="S4" t="n">
-        <v>0.382786852781891</v>
+        <v>-0.0387614137147646</v>
       </c>
       <c r="T4" t="n">
-        <v>1.11744761967299</v>
+        <v>1.98560623661469</v>
       </c>
       <c r="U4" t="n">
-        <v>-1.11053959776891</v>
+        <v>0.963609738656143</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.635481100364664</v>
+        <v>-0.383789598659379</v>
       </c>
       <c r="W4" t="n">
-        <v>0.499070314487142</v>
+        <v>-3.05248609060827</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.634903967263544</v>
+        <v>-0.949339149558008</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.76532042390504</v>
+        <v>0.479097134938374</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.5122725842947</v>
+        <v>1.51327089557223</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.975440184212009</v>
+        <v>-0.212479601396949</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.467308448618219</v>
+        <v>0.328684016917169</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.12709677849874</v>
+        <v>0.356933463379233</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.091008114111091</v>
+        <v>0.708044456939323</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.3212429900458</v>
+        <v>-0.403484636971652</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0628667827888129</v>
+        <v>-1.20852907726898</v>
       </c>
       <c r="AG4" t="n">
-        <v>-1.25639785848575</v>
+        <v>1.18949025603956</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.237471751311166</v>
+        <v>-0.289828693103413</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.32481073252402</v>
+        <v>-0.00233524678718965</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.971337305201372</v>
+        <v>-1.09893154636306</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.348068439373237</v>
+        <v>0.69106012176276</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.3568100323563</v>
+        <v>0.0544221056667081</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.0940270467604912</v>
+        <v>-0.0920823642200254</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.550545973089904</v>
+        <v>1.83981952522223</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.982202556472666</v>
+        <v>1.16868375120629</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.455865942336876</v>
+        <v>-1.14167627893417</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.643511205170052</v>
+        <v>-0.173632498893324</v>
       </c>
       <c r="AR4" t="n">
-        <v>-1.15586212341616</v>
+        <v>-0.776403689009663</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.590047627420514</v>
+        <v>0.714307123694708</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.826050883323618</v>
+        <v>0.664230734198293</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.802164123967081</v>
+        <v>-1.10051526976182</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.249252341677495</v>
+        <v>1.34661876575705</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.172231949063691</v>
+        <v>-0.698765311699405</v>
       </c>
       <c r="AX4" t="n">
-        <v>-1.80422074260589</v>
+        <v>0.244248967228942</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.0611801836319229</v>
+        <v>-0.251536273463039</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.34952904763046</v>
+        <v>0.392215609046361</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.652109707886303</v>
+        <v>-1.49010049144578</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.587420211893239</v>
+        <v>-1.87279394072949</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.2955528126761</v>
+        <v>2.23690471660684</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.622727696202046</v>
+        <v>-0.00603190916809144</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.383499026544332</v>
+        <v>0.118597686971839</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.396204930572432</v>
+        <v>0.911358790113814</v>
       </c>
       <c r="BG4" t="n">
-        <v>-1.70361354389665</v>
+        <v>-0.922134787625728</v>
       </c>
       <c r="BH4" t="n">
-        <v>-1.8121375523301</v>
+        <v>0.762801295034672</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.845609125120262</v>
+        <v>0.0941637847682942</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-1.06892218397161</v>
+        <v>-0.0718279220987144</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.247283544386309</v>
+        <v>0.325880393110261</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.66540587541597</v>
+        <v>0.179405464396944</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.210634486816377</v>
+        <v>-1.66542768633585</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.69347590188504</v>
+        <v>0.512594607396252</v>
       </c>
       <c r="BO4" t="n">
-        <v>-1.04631655258391</v>
+        <v>-0.930609667971273</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0822051898094792</v>
+        <v>-0.748124578306508</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.480966205569093</v>
+        <v>0.973103125118413</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.602264308776435</v>
+        <v>-0.346119360375332</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.802278884948816</v>
+        <v>-0.145732089888804</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.202524169795104</v>
+        <v>-0.298254781758166</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.0864149840601712</v>
+        <v>0.127416467598095</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.074792656162798</v>
+        <v>-2.4024395769059</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.166918007205342</v>
+        <v>-1.04258174386077</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.682211403435999</v>
+        <v>-1.07932792856397</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.264291762544682</v>
+        <v>-0.0531521845184409</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.08899517659254</v>
+        <v>1.77371388397705</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.387963692443172</v>
+        <v>-0.325961153640442</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0.714005996910177</v>
+        <v>-0.126065752933213</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0.472277658551275</v>
+        <v>-1.22251822602761</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.82422196754923</v>
+        <v>-0.3844459992003</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.108249516310442</v>
+        <v>0.67998904368344</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.702414408638762</v>
+        <v>0.353212955588922</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0705496736365738</v>
+        <v>-0.558352263074225</v>
       </c>
       <c r="CH4" t="n">
-        <v>-1.5188945732312</v>
+        <v>-1.44267613254391</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0.074103404077418</v>
+        <v>-0.0383425605552795</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-1.55225865823618</v>
+        <v>0.261909980327175</v>
       </c>
       <c r="CK4" t="n">
-        <v>-1.43866521168</v>
+        <v>1.04169399387392</v>
       </c>
       <c r="CL4" t="n">
-        <v>-1.25781667940137</v>
+        <v>1.07718270164434</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.486650306158029</v>
+        <v>-0.387132705774068</v>
       </c>
       <c r="CN4" t="n">
-        <v>-1.66339364934596</v>
+        <v>0.0732436734930061</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.63829166717015</v>
+        <v>0.541110578636258</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.828139073766474</v>
+        <v>0.107144693905141</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.89054517682889</v>
+        <v>-0.517313824619477</v>
       </c>
       <c r="CR4" t="n">
-        <v>-2.65089076747987</v>
+        <v>-0.8611405186039</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.0820704250553026</v>
+        <v>-0.480061153854785</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.052381623062349</v>
+        <v>-1.2160858648025</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.99094514980026</v>
+        <v>-2.07799055174356</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0736377959493319</v>
+        <v>1.29946727263479</v>
       </c>
       <c r="CW4" t="n">
-        <v>-2.14808312839481</v>
+        <v>-0.220402866398169</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.133117640410736</v>
+        <v>1.09532556724069</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.91258913147716</v>
+        <v>-0.119532050984514</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.253668824383896</v>
+        <v>-0.487846503205815</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.172054309769002</v>
+        <v>1.2363223367627</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.675576578212713</v>
+        <v>-0.367882072673389</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.549146178446209</v>
+        <v>-0.098214472139766</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.520546136521371</v>
+        <v>0.569243554107022</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.154852569210154</v>
+        <v>1.85444138185633</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.0952000311466261</v>
+        <v>0.692465209815711</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.809755423574754</v>
+        <v>0.665095243266177</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.278955735664631</v>
+        <v>-0.84090814246863</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.118019809007022</v>
+        <v>1.63271221754615</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0.595548023654712</v>
+        <v>-1.43234528447415</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0.441820591932957</v>
+        <v>-1.7861356050951</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.172590347701716</v>
+        <v>-0.287018611557671</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.00780303371863125</v>
+        <v>-1.20083631317814</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0227869264148322</v>
+        <v>1.10186632167597</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.27391575507053</v>
+        <v>0.0317320715135085</v>
       </c>
       <c r="DP4" t="n">
-        <v>-1.15733740836321</v>
+        <v>-0.961359865030849</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1.42909630694124</v>
+        <v>1.34913768389885</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.839256665659262</v>
+        <v>-0.433048821216448</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.359074315011797</v>
+        <v>1.38262095012032</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.451358397860466</v>
+        <v>-0.748642084269847</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.926809524042695</v>
+        <v>-0.981270410158602</v>
       </c>
       <c r="DV4" t="n">
-        <v>-1.36499364926538</v>
+        <v>-0.132028993257013</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.20203538571472</v>
+        <v>0.358248578796583</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.959583678378869</v>
+        <v>2.33905969997238</v>
       </c>
       <c r="DY4" t="n">
-        <v>-1.37582481099069</v>
+        <v>0.185201117023159</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0260496736498614</v>
+        <v>1.55578329913123</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.408883575874093</v>
+        <v>-0.80887894596283</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.143906062439644</v>
+        <v>-1.65524916240167</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.963674251365672</v>
+        <v>-0.0423315885531244</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0.42814912174436</v>
+        <v>-0.303459510742705</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.956875914089273</v>
+        <v>0.781596630183556</v>
       </c>
       <c r="EF4" t="n">
-        <v>-1.14849061790826</v>
+        <v>0.128902880218637</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.911908108783435</v>
+        <v>-0.972986356372563</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.514308553975004</v>
+        <v>0.21823242675311</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.936188755880039</v>
+        <v>-0.404776345918033</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.462760033287281</v>
+        <v>0.609917034099478</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.740682273830748</v>
+        <v>-0.459558036072652</v>
       </c>
       <c r="EL4" t="n">
-        <v>-1.46484924695602</v>
+        <v>-0.640003413808731</v>
       </c>
       <c r="EM4" t="n">
-        <v>-1.37334022702628</v>
+        <v>-0.0330668648555899</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.559995596342152</v>
+        <v>-1.62657611695616</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.617464291202975</v>
+        <v>-0.0565175655232406</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0.0579810044798051</v>
+        <v>1.68430945220869</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.241578791476892</v>
+        <v>-1.40280487599917</v>
       </c>
       <c r="ER4" t="n">
-        <v>-1.15935886146912</v>
+        <v>-1.2673964969801</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.450547805017772</v>
+        <v>0.664212991821376</v>
       </c>
       <c r="ET4" t="n">
-        <v>1.07610610734644</v>
+        <v>-0.484608464951844</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0.779101369604128</v>
+        <v>0.333422575096807</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.654091192052441</v>
+        <v>0.413733626841098</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.406869344445104</v>
+        <v>-0.213552496666033</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.72535060898129</v>
+        <v>-0.237719113246086</v>
       </c>
       <c r="EY4" t="n">
-        <v>-1.1212706979914</v>
+        <v>0.904173975922596</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.123664051624401</v>
+        <v>-0.565515157317887</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.197318631289087</v>
+        <v>0.0510461686441939</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.754139246793648</v>
+        <v>1.00861290486046</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.879127926699873</v>
+        <v>1.41448493044205</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.0346648512962755</v>
+        <v>-0.442378200563576</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0.066765559892507</v>
+        <v>0.602957988524786</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.813309524608433</v>
+        <v>-0.471158798554057</v>
       </c>
       <c r="FG4" t="n">
-        <v>1.63803420716937</v>
+        <v>-0.98126247505506</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.766915070390228</v>
+        <v>-0.282270017814612</v>
       </c>
       <c r="FI4" t="n">
-        <v>-1.45212743091869</v>
+        <v>-1.28806720572384</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.0606484193612879</v>
+        <v>0.123188071980059</v>
       </c>
       <c r="FK4" t="n">
         <v>1</v>
@@ -3066,48 +3102,57 @@
         <v>1</v>
       </c>
       <c r="FN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP4" t="n">
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT4" t="n">
         <v>0</v>
       </c>
-      <c r="FR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>1</v>
-      </c>
       <c r="FU4" t="n">
         <v>1</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX4" t="n">
         <v>0</v>
       </c>
       <c r="FY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA4" t="n">
         <v>0</v>
       </c>
-      <c r="FZ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA4" t="n">
-        <v>1</v>
-      </c>
       <c r="GB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/file_checks/dataset_correct_genes_wrong_pheno.xlsx
+++ b/file_checks/dataset_correct_genes_wrong_pheno.xlsx
@@ -1469,502 +1469,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.602433278191006</v>
+        <v>-0.882639707736361</v>
       </c>
       <c r="B2" t="n">
-        <v>0.181324699637646</v>
+        <v>2.12919293338937</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.23669835287022</v>
+        <v>0.588475563239208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13206129112578</v>
+        <v>-1.69288865665159</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4469807117564</v>
+        <v>0.855597240568833</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.638340147345184</v>
+        <v>0.197054034188184</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0370964861343703</v>
+        <v>0.676751084440769</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.547082737101707</v>
+        <v>0.60985694808697</v>
       </c>
       <c r="I2" t="n">
-        <v>0.264284513263925</v>
+        <v>0.440608392053427</v>
       </c>
       <c r="J2" t="n">
-        <v>0.463321330864724</v>
+        <v>-0.0759127204332693</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.818854059948308</v>
+        <v>0.686645305189424</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3923452490295</v>
+        <v>-2.16391289809886</v>
       </c>
       <c r="M2" t="n">
-        <v>0.876305001483019</v>
+        <v>1.38066670340482</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.37365867542092</v>
+        <v>0.442229446427482</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.410944409073218</v>
+        <v>0.206240135177629</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.521010532254349</v>
+        <v>0.550960883131076</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.51812658257335</v>
+        <v>2.30079134290388</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.476595675803831</v>
+        <v>1.73247629410421</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0387614137147646</v>
+        <v>-0.654045725928158</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98560623661469</v>
+        <v>1.25673199464478</v>
       </c>
       <c r="U2" t="n">
-        <v>0.963609738656143</v>
+        <v>-0.69384038113782</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.383789598659379</v>
+        <v>-0.874797525860457</v>
       </c>
       <c r="W2" t="n">
-        <v>-3.05248609060827</v>
+        <v>-2.28153628610485</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.949339149558008</v>
+        <v>-0.146105191605096</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.479097134938374</v>
+        <v>-0.0899270334223634</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.51327089557223</v>
+        <v>-1.27947702810212</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.212479601396949</v>
+        <v>2.13026575529929</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.328684016917169</v>
+        <v>-0.131266214971845</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.356933463379233</v>
+        <v>-0.609763010474105</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.708044456939323</v>
+        <v>1.12483134260828</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.403484636971652</v>
+        <v>0.024974703380559</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.20852907726898</v>
+        <v>-0.870878444857437</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.18949025603956</v>
+        <v>0.19557453277685</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.289828693103413</v>
+        <v>-0.092311872591162</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.00233524678718965</v>
+        <v>0.565740466458053</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.09893154636306</v>
+        <v>-1.91768190345577</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.69106012176276</v>
+        <v>-0.981485303935415</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0544221056667081</v>
+        <v>0.535494848102941</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.0920823642200254</v>
+        <v>-1.35006996851701</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.83981952522223</v>
+        <v>-0.213921914595832</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.16868375120629</v>
+        <v>-0.654654238820795</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.14167627893417</v>
+        <v>-1.80954332003319</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.173632498893324</v>
+        <v>-0.0637274038663382</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.776403689009663</v>
+        <v>-0.172219526349124</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.714307123694708</v>
+        <v>1.0979737685293</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.664230734198293</v>
+        <v>-0.545238039372414</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.10051526976182</v>
+        <v>-0.00670359676462649</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.34661876575705</v>
+        <v>0.87131816493382</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.698765311699405</v>
+        <v>1.00018666925726</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.244248967228942</v>
+        <v>-0.669221989448808</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.251536273463039</v>
+        <v>-0.604956269911407</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.392215609046361</v>
+        <v>1.79190757111598</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.49010049144578</v>
+        <v>-0.576592052048504</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.87279394072949</v>
+        <v>-1.39589402336057</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.23690471660684</v>
+        <v>-2.36562095722867</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.00603190916809144</v>
+        <v>-0.0742916098952611</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.118597686971839</v>
+        <v>0.371335170245495</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.911358790113814</v>
+        <v>-2.06015354354791</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.922134787625728</v>
+        <v>2.40747612903517</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.762801295034672</v>
+        <v>0.977233104555386</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0941637847682942</v>
+        <v>-2.32281807531559</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.0718279220987144</v>
+        <v>-0.414122547167062</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.325880393110261</v>
+        <v>-0.645260911628688</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.179405464396944</v>
+        <v>0.344292459305061</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.66542768633585</v>
+        <v>0.224450309634935</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.512594607396252</v>
+        <v>1.69462437819031</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.930609667971273</v>
+        <v>0.799424187282592</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.748124578306508</v>
+        <v>-0.483126691908931</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.973103125118413</v>
+        <v>0.528539556783898</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.346119360375332</v>
+        <v>-0.343033765214065</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.145732089888804</v>
+        <v>-0.322170333557536</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.298254781758166</v>
+        <v>-0.149324078913582</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.127416467598095</v>
+        <v>-0.462037603494107</v>
       </c>
       <c r="BV2" t="n">
-        <v>-2.4024395769059</v>
+        <v>-1.00435969568764</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.04258174386077</v>
+        <v>0.479579090674327</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.07932792856397</v>
+        <v>-0.901994309860322</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.0531521845184409</v>
+        <v>-0.182596273799525</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.77371388397705</v>
+        <v>1.72706642650167</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.325961153640442</v>
+        <v>1.40962645498598</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.126065752933213</v>
+        <v>-0.347333721248633</v>
       </c>
       <c r="CC2" t="n">
-        <v>-1.22251822602761</v>
+        <v>-1.72528801725201</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.3844459992003</v>
+        <v>-0.0358490382458993</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.67998904368344</v>
+        <v>-2.26246986636237</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.353212955588922</v>
+        <v>-0.667100171936557</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.558352263074225</v>
+        <v>-0.0647585453165815</v>
       </c>
       <c r="CH2" t="n">
-        <v>-1.44267613254391</v>
+        <v>0.024293565626829</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.0383425605552795</v>
+        <v>0.303021503949149</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.261909980327175</v>
+        <v>-0.175725810571942</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.04169399387392</v>
+        <v>0.796864901124406</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.07718270164434</v>
+        <v>-0.731020530287523</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.387132705774068</v>
+        <v>1.43607630379301</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0732436734930061</v>
+        <v>1.93102606989446</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.541110578636258</v>
+        <v>0.476683061323754</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.107144693905141</v>
+        <v>0.098011728704264</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.517313824619477</v>
+        <v>0.536271444088019</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.8611405186039</v>
+        <v>-0.27523230050554</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.480061153854785</v>
+        <v>0.512513746849181</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.2160858648025</v>
+        <v>-2.92059803778829</v>
       </c>
       <c r="CU2" t="n">
-        <v>-2.07799055174356</v>
+        <v>-0.275279259757463</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.29946727263479</v>
+        <v>0.0861630390189489</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.220402866398169</v>
+        <v>0.725170925385388</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.09532556724069</v>
+        <v>-1.12745506214358</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.119532050984514</v>
+        <v>-0.787700811682497</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.487846503205815</v>
+        <v>1.07226144437993</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.2363223367627</v>
+        <v>0.160910855457776</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.367882072673389</v>
+        <v>1.12110080784073</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.098214472139766</v>
+        <v>-0.503905223758886</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.569243554107022</v>
+        <v>0.130874912254039</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.85444138185633</v>
+        <v>-1.2866386301393</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.692465209815711</v>
+        <v>-1.56217621529509</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.665095243266177</v>
+        <v>-1.58288313344173</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.84090814246863</v>
+        <v>0.270621543637788</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.63271221754615</v>
+        <v>0.84847477478225</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.43234528447415</v>
+        <v>-0.47785002371392</v>
       </c>
       <c r="DK2" t="n">
-        <v>-1.7861356050951</v>
+        <v>-0.961214802494442</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.287018611557671</v>
+        <v>1.37086420979858</v>
       </c>
       <c r="DM2" t="n">
-        <v>-1.20083631317814</v>
+        <v>-0.700310050602748</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.10186632167597</v>
+        <v>-0.401279246327574</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0317320715135085</v>
+        <v>-1.15772853679615</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.961359865030849</v>
+        <v>-1.2385151223416</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.34913768389885</v>
+        <v>0.86635964026449</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.433048821216448</v>
+        <v>0.636551333061465</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.38262095012032</v>
+        <v>-0.353812658906845</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.748642084269847</v>
+        <v>-0.295582299853234</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.981270410158602</v>
+        <v>-0.240925197504506</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.132028993257013</v>
+        <v>-0.944920603080025</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.358248578796583</v>
+        <v>0.667025846157742</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.33905969997238</v>
+        <v>-0.186918039517915</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.185201117023159</v>
+        <v>2.23439103474446</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.55578329913123</v>
+        <v>-0.486924693788479</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.80887894596283</v>
+        <v>-0.091139268182747</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.65524916240167</v>
+        <v>1.17546610712255</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.0423315885531244</v>
+        <v>-0.0042258658479879</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.303459510742705</v>
+        <v>0.0686730745867803</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.781596630183556</v>
+        <v>1.39804136834488</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.128902880218637</v>
+        <v>-1.2325437507178</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.972986356372563</v>
+        <v>0.467626810825937</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.21823242675311</v>
+        <v>-0.282401080407038</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.404776345918033</v>
+        <v>0.826655115021019</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.609917034099478</v>
+        <v>0.545425676922745</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.459558036072652</v>
+        <v>-0.158839843404547</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.640003413808731</v>
+        <v>-0.82364565672527</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.0330668648555899</v>
+        <v>-0.629456050517942</v>
       </c>
       <c r="EN2" t="n">
-        <v>-1.62657611695616</v>
+        <v>-1.51471421997256</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.0565175655232406</v>
+        <v>-0.411118155772409</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.68430945220869</v>
+        <v>0.739379102699591</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-1.40280487599917</v>
+        <v>2.13726979217343</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.2673964969801</v>
+        <v>1.45119357817786</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.664212991821376</v>
+        <v>-1.20943366074329</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.484608464951844</v>
+        <v>0.677069312544371</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.333422575096807</v>
+        <v>0.597202975938339</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.413733626841098</v>
+        <v>-0.287083755240949</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.213552496666033</v>
+        <v>1.69754665444661</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.237719113246086</v>
+        <v>1.31089691425833</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.904173975922596</v>
+        <v>0.747325688193014</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.565515157317887</v>
+        <v>0.544644645752477</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0510461686441939</v>
+        <v>0.63824065326399</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.00861290486046</v>
+        <v>-0.344990716962238</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.41448493044205</v>
+        <v>-2.20392511092662</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.442378200563576</v>
+        <v>-0.468021726506828</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.602957988524786</v>
+        <v>1.22616815169935</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.471158798554057</v>
+        <v>0.285229170892744</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.98126247505506</v>
+        <v>0.0993779201791299</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.282270017814612</v>
+        <v>-0.152988959177404</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.28806720572384</v>
+        <v>-0.260283128754789</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.123188071980059</v>
+        <v>-0.0907358993810709</v>
       </c>
       <c r="FK2" t="n">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
         <v>0</v>
@@ -1985,25 +1985,25 @@
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="n">
         <v>1</v>
       </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0</v>
-      </c>
       <c r="FU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
         <v>0</v>
@@ -2012,19 +2012,19 @@
         <v>1</v>
       </c>
       <c r="FZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" t="n">
         <v>1</v>
       </c>
-      <c r="GA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0</v>
-      </c>
       <c r="GC2" t="n">
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
@@ -2032,502 +2032,502 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.602433278191006</v>
+        <v>-0.882639707736361</v>
       </c>
       <c r="B3" t="n">
-        <v>0.181324699637646</v>
+        <v>2.12919293338937</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.23669835287022</v>
+        <v>0.588475563239208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13206129112578</v>
+        <v>-1.69288865665159</v>
       </c>
       <c r="E3" t="n">
-        <v>1.4469807117564</v>
+        <v>0.855597240568833</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.638340147345184</v>
+        <v>0.197054034188184</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0370964861343703</v>
+        <v>0.676751084440769</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.547082737101707</v>
+        <v>0.60985694808697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.264284513263925</v>
+        <v>0.440608392053427</v>
       </c>
       <c r="J3" t="n">
-        <v>0.463321330864724</v>
+        <v>-0.0759127204332693</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.818854059948308</v>
+        <v>0.686645305189424</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3923452490295</v>
+        <v>-2.16391289809886</v>
       </c>
       <c r="M3" t="n">
-        <v>0.876305001483019</v>
+        <v>1.38066670340482</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.37365867542092</v>
+        <v>0.442229446427482</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.410944409073218</v>
+        <v>0.206240135177629</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.521010532254349</v>
+        <v>0.550960883131076</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.51812658257335</v>
+        <v>2.30079134290388</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.476595675803831</v>
+        <v>1.73247629410421</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.0387614137147646</v>
+        <v>-0.654045725928158</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98560623661469</v>
+        <v>1.25673199464478</v>
       </c>
       <c r="U3" t="n">
-        <v>0.963609738656143</v>
+        <v>-0.69384038113782</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.383789598659379</v>
+        <v>-0.874797525860457</v>
       </c>
       <c r="W3" t="n">
-        <v>-3.05248609060827</v>
+        <v>-2.28153628610485</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.949339149558008</v>
+        <v>-0.146105191605096</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.479097134938374</v>
+        <v>-0.0899270334223634</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.51327089557223</v>
+        <v>-1.27947702810212</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.212479601396949</v>
+        <v>2.13026575529929</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.328684016917169</v>
+        <v>-0.131266214971845</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.356933463379233</v>
+        <v>-0.609763010474105</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.708044456939323</v>
+        <v>1.12483134260828</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.403484636971652</v>
+        <v>0.024974703380559</v>
       </c>
       <c r="AF3" t="n">
-        <v>-1.20852907726898</v>
+        <v>-0.870878444857437</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.18949025603956</v>
+        <v>0.19557453277685</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.289828693103413</v>
+        <v>-0.092311872591162</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.00233524678718965</v>
+        <v>0.565740466458053</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-1.09893154636306</v>
+        <v>-1.91768190345577</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.69106012176276</v>
+        <v>-0.981485303935415</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0544221056667081</v>
+        <v>0.535494848102941</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.0920823642200254</v>
+        <v>-1.35006996851701</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.83981952522223</v>
+        <v>-0.213921914595832</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.16868375120629</v>
+        <v>-0.654654238820795</v>
       </c>
       <c r="AP3" t="n">
-        <v>-1.14167627893417</v>
+        <v>-1.80954332003319</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.173632498893324</v>
+        <v>-0.0637274038663382</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.776403689009663</v>
+        <v>-0.172219526349124</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.714307123694708</v>
+        <v>1.0979737685293</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.664230734198293</v>
+        <v>-0.545238039372414</v>
       </c>
       <c r="AU3" t="n">
-        <v>-1.10051526976182</v>
+        <v>-0.00670359676462649</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.34661876575705</v>
+        <v>0.87131816493382</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.698765311699405</v>
+        <v>1.00018666925726</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.244248967228942</v>
+        <v>-0.669221989448808</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.251536273463039</v>
+        <v>-0.604956269911407</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.392215609046361</v>
+        <v>1.79190757111598</v>
       </c>
       <c r="BA3" t="n">
-        <v>-1.49010049144578</v>
+        <v>-0.576592052048504</v>
       </c>
       <c r="BB3" t="n">
-        <v>-1.87279394072949</v>
+        <v>-1.39589402336057</v>
       </c>
       <c r="BC3" t="n">
-        <v>2.23690471660684</v>
+        <v>-2.36562095722867</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.00603190916809144</v>
+        <v>-0.0742916098952611</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.118597686971839</v>
+        <v>0.371335170245495</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.911358790113814</v>
+        <v>-2.06015354354791</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.922134787625728</v>
+        <v>2.40747612903517</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.762801295034672</v>
+        <v>0.977233104555386</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0941637847682942</v>
+        <v>-2.32281807531559</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.0718279220987144</v>
+        <v>-0.414122547167062</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.325880393110261</v>
+        <v>-0.645260911628688</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.179405464396944</v>
+        <v>0.344292459305061</v>
       </c>
       <c r="BM3" t="n">
-        <v>-1.66542768633585</v>
+        <v>0.224450309634935</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.512594607396252</v>
+        <v>1.69462437819031</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.930609667971273</v>
+        <v>0.799424187282592</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.748124578306508</v>
+        <v>-0.483126691908931</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.973103125118413</v>
+        <v>0.528539556783898</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0.346119360375332</v>
+        <v>-0.343033765214065</v>
       </c>
       <c r="BS3" t="n">
-        <v>-0.145732089888804</v>
+        <v>-0.322170333557536</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.298254781758166</v>
+        <v>-0.149324078913582</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.127416467598095</v>
+        <v>-0.462037603494107</v>
       </c>
       <c r="BV3" t="n">
-        <v>-2.4024395769059</v>
+        <v>-1.00435969568764</v>
       </c>
       <c r="BW3" t="n">
-        <v>-1.04258174386077</v>
+        <v>0.479579090674327</v>
       </c>
       <c r="BX3" t="n">
-        <v>-1.07932792856397</v>
+        <v>-0.901994309860322</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.0531521845184409</v>
+        <v>-0.182596273799525</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.77371388397705</v>
+        <v>1.72706642650167</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0.325961153640442</v>
+        <v>1.40962645498598</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0.126065752933213</v>
+        <v>-0.347333721248633</v>
       </c>
       <c r="CC3" t="n">
-        <v>-1.22251822602761</v>
+        <v>-1.72528801725201</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.3844459992003</v>
+        <v>-0.0358490382458993</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.67998904368344</v>
+        <v>-2.26246986636237</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.353212955588922</v>
+        <v>-0.667100171936557</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0.558352263074225</v>
+        <v>-0.0647585453165815</v>
       </c>
       <c r="CH3" t="n">
-        <v>-1.44267613254391</v>
+        <v>0.024293565626829</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0.0383425605552795</v>
+        <v>0.303021503949149</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.261909980327175</v>
+        <v>-0.175725810571942</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.04169399387392</v>
+        <v>0.796864901124406</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.07718270164434</v>
+        <v>-0.731020530287523</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.387132705774068</v>
+        <v>1.43607630379301</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0732436734930061</v>
+        <v>1.93102606989446</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.541110578636258</v>
+        <v>0.476683061323754</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.107144693905141</v>
+        <v>0.098011728704264</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.517313824619477</v>
+        <v>0.536271444088019</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0.8611405186039</v>
+        <v>-0.27523230050554</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0.480061153854785</v>
+        <v>0.512513746849181</v>
       </c>
       <c r="CT3" t="n">
-        <v>-1.2160858648025</v>
+        <v>-2.92059803778829</v>
       </c>
       <c r="CU3" t="n">
-        <v>-2.07799055174356</v>
+        <v>-0.275279259757463</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.29946727263479</v>
+        <v>0.0861630390189489</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0.220402866398169</v>
+        <v>0.725170925385388</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.09532556724069</v>
+        <v>-1.12745506214358</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0.119532050984514</v>
+        <v>-0.787700811682497</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.487846503205815</v>
+        <v>1.07226144437993</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.2363223367627</v>
+        <v>0.160910855457776</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.367882072673389</v>
+        <v>1.12110080784073</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0.098214472139766</v>
+        <v>-0.503905223758886</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.569243554107022</v>
+        <v>0.130874912254039</v>
       </c>
       <c r="DE3" t="n">
-        <v>1.85444138185633</v>
+        <v>-1.2866386301393</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.692465209815711</v>
+        <v>-1.56217621529509</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.665095243266177</v>
+        <v>-1.58288313344173</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0.84090814246863</v>
+        <v>0.270621543637788</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.63271221754615</v>
+        <v>0.84847477478225</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-1.43234528447415</v>
+        <v>-0.47785002371392</v>
       </c>
       <c r="DK3" t="n">
-        <v>-1.7861356050951</v>
+        <v>-0.961214802494442</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.287018611557671</v>
+        <v>1.37086420979858</v>
       </c>
       <c r="DM3" t="n">
-        <v>-1.20083631317814</v>
+        <v>-0.700310050602748</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.10186632167597</v>
+        <v>-0.401279246327574</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0317320715135085</v>
+        <v>-1.15772853679615</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.961359865030849</v>
+        <v>-1.2385151223416</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.34913768389885</v>
+        <v>0.86635964026449</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.433048821216448</v>
+        <v>0.636551333061465</v>
       </c>
       <c r="DS3" t="n">
-        <v>1.38262095012032</v>
+        <v>-0.353812658906845</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0.748642084269847</v>
+        <v>-0.295582299853234</v>
       </c>
       <c r="DU3" t="n">
-        <v>-0.981270410158602</v>
+        <v>-0.240925197504506</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.132028993257013</v>
+        <v>-0.944920603080025</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.358248578796583</v>
+        <v>0.667025846157742</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.33905969997238</v>
+        <v>-0.186918039517915</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.185201117023159</v>
+        <v>2.23439103474446</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.55578329913123</v>
+        <v>-0.486924693788479</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.80887894596283</v>
+        <v>-0.091139268182747</v>
       </c>
       <c r="EB3" t="n">
-        <v>-1.65524916240167</v>
+        <v>1.17546610712255</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0.0423315885531244</v>
+        <v>-0.0042258658479879</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0.303459510742705</v>
+        <v>0.0686730745867803</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.781596630183556</v>
+        <v>1.39804136834488</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.128902880218637</v>
+        <v>-1.2325437507178</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0.972986356372563</v>
+        <v>0.467626810825937</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.21823242675311</v>
+        <v>-0.282401080407038</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0.404776345918033</v>
+        <v>0.826655115021019</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.609917034099478</v>
+        <v>0.545425676922745</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0.459558036072652</v>
+        <v>-0.158839843404547</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0.640003413808731</v>
+        <v>-0.82364565672527</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0.0330668648555899</v>
+        <v>-0.629456050517942</v>
       </c>
       <c r="EN3" t="n">
-        <v>-1.62657611695616</v>
+        <v>-1.51471421997256</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.0565175655232406</v>
+        <v>-0.411118155772409</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.68430945220869</v>
+        <v>0.739379102699591</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-1.40280487599917</v>
+        <v>2.13726979217343</v>
       </c>
       <c r="ER3" t="n">
-        <v>-1.2673964969801</v>
+        <v>1.45119357817786</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.664212991821376</v>
+        <v>-1.20943366074329</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0.484608464951844</v>
+        <v>0.677069312544371</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.333422575096807</v>
+        <v>0.597202975938339</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.413733626841098</v>
+        <v>-0.287083755240949</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.213552496666033</v>
+        <v>1.69754665444661</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.237719113246086</v>
+        <v>1.31089691425833</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.904173975922596</v>
+        <v>0.747325688193014</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.565515157317887</v>
+        <v>0.544644645752477</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0510461686441939</v>
+        <v>0.63824065326399</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.00861290486046</v>
+        <v>-0.344990716962238</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.41448493044205</v>
+        <v>-2.20392511092662</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0.442378200563576</v>
+        <v>-0.468021726506828</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.602957988524786</v>
+        <v>1.22616815169935</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.471158798554057</v>
+        <v>0.285229170892744</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.98126247505506</v>
+        <v>0.0993779201791299</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0.282270017814612</v>
+        <v>-0.152988959177404</v>
       </c>
       <c r="FI3" t="n">
-        <v>-1.28806720572384</v>
+        <v>-0.260283128754789</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.123188071980059</v>
+        <v>-0.0907358993810709</v>
       </c>
       <c r="FK3" t="n">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>0</v>
@@ -2548,25 +2548,25 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="n">
         <v>1</v>
       </c>
-      <c r="FR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
       <c r="FU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
         <v>0</v>
@@ -2575,19 +2575,19 @@
         <v>1</v>
       </c>
       <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
         <v>1</v>
       </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>0</v>
-      </c>
       <c r="GC3" t="n">
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE3" t="n">
         <v>0</v>
@@ -2595,502 +2595,502 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.602433278191006</v>
+        <v>-0.882639707736361</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181324699637646</v>
+        <v>2.12919293338937</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.23669835287022</v>
+        <v>0.588475563239208</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13206129112578</v>
+        <v>-1.69288865665159</v>
       </c>
       <c r="E4" t="n">
-        <v>1.4469807117564</v>
+        <v>0.855597240568833</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.638340147345184</v>
+        <v>0.197054034188184</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0370964861343703</v>
+        <v>0.676751084440769</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.547082737101707</v>
+        <v>0.60985694808697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.264284513263925</v>
+        <v>0.440608392053427</v>
       </c>
       <c r="J4" t="n">
-        <v>0.463321330864724</v>
+        <v>-0.0759127204332693</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.818854059948308</v>
+        <v>0.686645305189424</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3923452490295</v>
+        <v>-2.16391289809886</v>
       </c>
       <c r="M4" t="n">
-        <v>0.876305001483019</v>
+        <v>1.38066670340482</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.37365867542092</v>
+        <v>0.442229446427482</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.410944409073218</v>
+        <v>0.206240135177629</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.521010532254349</v>
+        <v>0.550960883131076</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.51812658257335</v>
+        <v>2.30079134290388</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.476595675803831</v>
+        <v>1.73247629410421</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.0387614137147646</v>
+        <v>-0.654045725928158</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98560623661469</v>
+        <v>1.25673199464478</v>
       </c>
       <c r="U4" t="n">
-        <v>0.963609738656143</v>
+        <v>-0.69384038113782</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.383789598659379</v>
+        <v>-0.874797525860457</v>
       </c>
       <c r="W4" t="n">
-        <v>-3.05248609060827</v>
+        <v>-2.28153628610485</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.949339149558008</v>
+        <v>-0.146105191605096</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.479097134938374</v>
+        <v>-0.0899270334223634</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.51327089557223</v>
+        <v>-1.27947702810212</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.212479601396949</v>
+        <v>2.13026575529929</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.328684016917169</v>
+        <v>-0.131266214971845</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.356933463379233</v>
+        <v>-0.609763010474105</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.708044456939323</v>
+        <v>1.12483134260828</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.403484636971652</v>
+        <v>0.024974703380559</v>
       </c>
       <c r="AF4" t="n">
-        <v>-1.20852907726898</v>
+        <v>-0.870878444857437</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.18949025603956</v>
+        <v>0.19557453277685</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.289828693103413</v>
+        <v>-0.092311872591162</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.00233524678718965</v>
+        <v>0.565740466458053</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-1.09893154636306</v>
+        <v>-1.91768190345577</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.69106012176276</v>
+        <v>-0.981485303935415</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0544221056667081</v>
+        <v>0.535494848102941</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.0920823642200254</v>
+        <v>-1.35006996851701</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.83981952522223</v>
+        <v>-0.213921914595832</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.16868375120629</v>
+        <v>-0.654654238820795</v>
       </c>
       <c r="AP4" t="n">
-        <v>-1.14167627893417</v>
+        <v>-1.80954332003319</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.173632498893324</v>
+        <v>-0.0637274038663382</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.776403689009663</v>
+        <v>-0.172219526349124</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.714307123694708</v>
+        <v>1.0979737685293</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.664230734198293</v>
+        <v>-0.545238039372414</v>
       </c>
       <c r="AU4" t="n">
-        <v>-1.10051526976182</v>
+        <v>-0.00670359676462649</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.34661876575705</v>
+        <v>0.87131816493382</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.698765311699405</v>
+        <v>1.00018666925726</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.244248967228942</v>
+        <v>-0.669221989448808</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.251536273463039</v>
+        <v>-0.604956269911407</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.392215609046361</v>
+        <v>1.79190757111598</v>
       </c>
       <c r="BA4" t="n">
-        <v>-1.49010049144578</v>
+        <v>-0.576592052048504</v>
       </c>
       <c r="BB4" t="n">
-        <v>-1.87279394072949</v>
+        <v>-1.39589402336057</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.23690471660684</v>
+        <v>-2.36562095722867</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.00603190916809144</v>
+        <v>-0.0742916098952611</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.118597686971839</v>
+        <v>0.371335170245495</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.911358790113814</v>
+        <v>-2.06015354354791</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.922134787625728</v>
+        <v>2.40747612903517</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.762801295034672</v>
+        <v>0.977233104555386</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0941637847682942</v>
+        <v>-2.32281807531559</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.0718279220987144</v>
+        <v>-0.414122547167062</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.325880393110261</v>
+        <v>-0.645260911628688</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.179405464396944</v>
+        <v>0.344292459305061</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1.66542768633585</v>
+        <v>0.224450309634935</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.512594607396252</v>
+        <v>1.69462437819031</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0.930609667971273</v>
+        <v>0.799424187282592</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.748124578306508</v>
+        <v>-0.483126691908931</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.973103125118413</v>
+        <v>0.528539556783898</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.346119360375332</v>
+        <v>-0.343033765214065</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.145732089888804</v>
+        <v>-0.322170333557536</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.298254781758166</v>
+        <v>-0.149324078913582</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.127416467598095</v>
+        <v>-0.462037603494107</v>
       </c>
       <c r="BV4" t="n">
-        <v>-2.4024395769059</v>
+        <v>-1.00435969568764</v>
       </c>
       <c r="BW4" t="n">
-        <v>-1.04258174386077</v>
+        <v>0.479579090674327</v>
       </c>
       <c r="BX4" t="n">
-        <v>-1.07932792856397</v>
+        <v>-0.901994309860322</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.0531521845184409</v>
+        <v>-0.182596273799525</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.77371388397705</v>
+        <v>1.72706642650167</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0.325961153640442</v>
+        <v>1.40962645498598</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0.126065752933213</v>
+        <v>-0.347333721248633</v>
       </c>
       <c r="CC4" t="n">
-        <v>-1.22251822602761</v>
+        <v>-1.72528801725201</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.3844459992003</v>
+        <v>-0.0358490382458993</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.67998904368344</v>
+        <v>-2.26246986636237</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.353212955588922</v>
+        <v>-0.667100171936557</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.558352263074225</v>
+        <v>-0.0647585453165815</v>
       </c>
       <c r="CH4" t="n">
-        <v>-1.44267613254391</v>
+        <v>0.024293565626829</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0.0383425605552795</v>
+        <v>0.303021503949149</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.261909980327175</v>
+        <v>-0.175725810571942</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.04169399387392</v>
+        <v>0.796864901124406</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.07718270164434</v>
+        <v>-0.731020530287523</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0.387132705774068</v>
+        <v>1.43607630379301</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0732436734930061</v>
+        <v>1.93102606989446</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.541110578636258</v>
+        <v>0.476683061323754</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.107144693905141</v>
+        <v>0.098011728704264</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.517313824619477</v>
+        <v>0.536271444088019</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.8611405186039</v>
+        <v>-0.27523230050554</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.480061153854785</v>
+        <v>0.512513746849181</v>
       </c>
       <c r="CT4" t="n">
-        <v>-1.2160858648025</v>
+        <v>-2.92059803778829</v>
       </c>
       <c r="CU4" t="n">
-        <v>-2.07799055174356</v>
+        <v>-0.275279259757463</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.29946727263479</v>
+        <v>0.0861630390189489</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.220402866398169</v>
+        <v>0.725170925385388</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.09532556724069</v>
+        <v>-1.12745506214358</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.119532050984514</v>
+        <v>-0.787700811682497</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.487846503205815</v>
+        <v>1.07226144437993</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.2363223367627</v>
+        <v>0.160910855457776</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.367882072673389</v>
+        <v>1.12110080784073</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0.098214472139766</v>
+        <v>-0.503905223758886</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.569243554107022</v>
+        <v>0.130874912254039</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.85444138185633</v>
+        <v>-1.2866386301393</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.692465209815711</v>
+        <v>-1.56217621529509</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.665095243266177</v>
+        <v>-1.58288313344173</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.84090814246863</v>
+        <v>0.270621543637788</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.63271221754615</v>
+        <v>0.84847477478225</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-1.43234528447415</v>
+        <v>-0.47785002371392</v>
       </c>
       <c r="DK4" t="n">
-        <v>-1.7861356050951</v>
+        <v>-0.961214802494442</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.287018611557671</v>
+        <v>1.37086420979858</v>
       </c>
       <c r="DM4" t="n">
-        <v>-1.20083631317814</v>
+        <v>-0.700310050602748</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.10186632167597</v>
+        <v>-0.401279246327574</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0317320715135085</v>
+        <v>-1.15772853679615</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0.961359865030849</v>
+        <v>-1.2385151223416</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1.34913768389885</v>
+        <v>0.86635964026449</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.433048821216448</v>
+        <v>0.636551333061465</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.38262095012032</v>
+        <v>-0.353812658906845</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0.748642084269847</v>
+        <v>-0.295582299853234</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.981270410158602</v>
+        <v>-0.240925197504506</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.132028993257013</v>
+        <v>-0.944920603080025</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.358248578796583</v>
+        <v>0.667025846157742</v>
       </c>
       <c r="DX4" t="n">
-        <v>2.33905969997238</v>
+        <v>-0.186918039517915</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.185201117023159</v>
+        <v>2.23439103474446</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.55578329913123</v>
+        <v>-0.486924693788479</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.80887894596283</v>
+        <v>-0.091139268182747</v>
       </c>
       <c r="EB4" t="n">
-        <v>-1.65524916240167</v>
+        <v>1.17546610712255</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.0423315885531244</v>
+        <v>-0.0042258658479879</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0.303459510742705</v>
+        <v>0.0686730745867803</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.781596630183556</v>
+        <v>1.39804136834488</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.128902880218637</v>
+        <v>-1.2325437507178</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0.972986356372563</v>
+        <v>0.467626810825937</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.21823242675311</v>
+        <v>-0.282401080407038</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.404776345918033</v>
+        <v>0.826655115021019</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.609917034099478</v>
+        <v>0.545425676922745</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.459558036072652</v>
+        <v>-0.158839843404547</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0.640003413808731</v>
+        <v>-0.82364565672527</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.0330668648555899</v>
+        <v>-0.629456050517942</v>
       </c>
       <c r="EN4" t="n">
-        <v>-1.62657611695616</v>
+        <v>-1.51471421997256</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.0565175655232406</v>
+        <v>-0.411118155772409</v>
       </c>
       <c r="EP4" t="n">
-        <v>1.68430945220869</v>
+        <v>0.739379102699591</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-1.40280487599917</v>
+        <v>2.13726979217343</v>
       </c>
       <c r="ER4" t="n">
-        <v>-1.2673964969801</v>
+        <v>1.45119357817786</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.664212991821376</v>
+        <v>-1.20943366074329</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0.484608464951844</v>
+        <v>0.677069312544371</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.333422575096807</v>
+        <v>0.597202975938339</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.413733626841098</v>
+        <v>-0.287083755240949</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.213552496666033</v>
+        <v>1.69754665444661</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0.237719113246086</v>
+        <v>1.31089691425833</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.904173975922596</v>
+        <v>0.747325688193014</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.565515157317887</v>
+        <v>0.544644645752477</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.0510461686441939</v>
+        <v>0.63824065326399</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.00861290486046</v>
+        <v>-0.344990716962238</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.41448493044205</v>
+        <v>-2.20392511092662</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0.442378200563576</v>
+        <v>-0.468021726506828</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.602957988524786</v>
+        <v>1.22616815169935</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.471158798554057</v>
+        <v>0.285229170892744</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.98126247505506</v>
+        <v>0.0993779201791299</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.282270017814612</v>
+        <v>-0.152988959177404</v>
       </c>
       <c r="FI4" t="n">
-        <v>-1.28806720572384</v>
+        <v>-0.260283128754789</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.123188071980059</v>
+        <v>-0.0907358993810709</v>
       </c>
       <c r="FK4" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>0</v>
@@ -3111,25 +3111,25 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
         <v>1</v>
       </c>
-      <c r="FR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>0</v>
-      </c>
       <c r="FU4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX4" t="n">
         <v>0</v>
@@ -3138,19 +3138,19 @@
         <v>1</v>
       </c>
       <c r="FZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" t="n">
         <v>1</v>
       </c>
-      <c r="GA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" t="n">
-        <v>0</v>
-      </c>
       <c r="GC4" t="n">
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
